--- a/OrbisGame/Container/Data/MiscItemListe.xlsx
+++ b/OrbisGame/Container/Data/MiscItemListe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Dropbox\OrbisAstea\Rpg\Container\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2BD083C-C93F-4471-838D-4A5890152BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7FA0F1A-D9EC-45D1-AE84-B219264126CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="8100" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3784,8 +3784,8 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:F761"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A325" workbookViewId="0">
-      <selection activeCell="F341" sqref="F341"/>
+    <sheetView tabSelected="1" topLeftCell="A667" workbookViewId="0">
+      <selection activeCell="F544" sqref="F544"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.87890625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -10285,7 +10285,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A337" t="s">
         <v>672</v>
       </c>
@@ -10296,7 +10296,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A338" t="s">
         <v>589</v>
       </c>
@@ -10307,7 +10307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A339" t="s">
         <v>159</v>
       </c>
@@ -10318,7 +10318,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A340" t="s">
         <v>160</v>
       </c>
@@ -10329,7 +10329,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A341" t="s">
         <v>161</v>
       </c>
@@ -10339,8 +10339,11 @@
       <c r="C341">
         <v>2</v>
       </c>
-    </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F341">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A342" t="s">
         <v>162</v>
       </c>
@@ -10350,8 +10353,11 @@
       <c r="C342">
         <v>1</v>
       </c>
-    </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F342">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A343" t="s">
         <v>163</v>
       </c>
@@ -10361,8 +10367,11 @@
       <c r="C343">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F343">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A344" t="s">
         <v>164</v>
       </c>
@@ -10372,8 +10381,11 @@
       <c r="C344">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F344">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A345" t="s">
         <v>165</v>
       </c>
@@ -10383,8 +10395,11 @@
       <c r="C345">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F345">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A346" t="s">
         <v>166</v>
       </c>
@@ -10394,8 +10409,11 @@
       <c r="C346">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F346">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A347" t="s">
         <v>167</v>
       </c>
@@ -10405,8 +10423,11 @@
       <c r="C347">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F347">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A348" t="s">
         <v>168</v>
       </c>
@@ -10416,8 +10437,11 @@
       <c r="C348">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F348">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A349" t="s">
         <v>169</v>
       </c>
@@ -10431,7 +10455,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A350" t="s">
         <v>170</v>
       </c>
@@ -10445,7 +10469,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A351" t="s">
         <v>171</v>
       </c>
@@ -10459,7 +10483,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A352" t="s">
         <v>172</v>
       </c>
@@ -10473,7 +10497,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A353" t="s">
         <v>173</v>
       </c>
@@ -10487,7 +10511,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A354" t="s">
         <v>174</v>
       </c>
@@ -10501,7 +10525,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A355" t="s">
         <v>175</v>
       </c>
@@ -10515,7 +10539,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A356" t="s">
         <v>176</v>
       </c>
@@ -10526,7 +10550,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A357" t="s">
         <v>177</v>
       </c>
@@ -10540,7 +10564,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A358" t="s">
         <v>179</v>
       </c>
@@ -10550,8 +10574,11 @@
       <c r="C358">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F358">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A359" t="s">
         <v>180</v>
       </c>
@@ -10561,8 +10588,11 @@
       <c r="C359">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F359">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A360" t="s">
         <v>181</v>
       </c>
@@ -10572,8 +10602,11 @@
       <c r="C360">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F360">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A361" t="s">
         <v>182</v>
       </c>
@@ -10583,8 +10616,11 @@
       <c r="C361">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F361">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A362" t="s">
         <v>183</v>
       </c>
@@ -10594,8 +10630,11 @@
       <c r="C362">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F362">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A363" t="s">
         <v>184</v>
       </c>
@@ -10605,8 +10644,11 @@
       <c r="C363">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F363">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A364" t="s">
         <v>185</v>
       </c>
@@ -10616,8 +10658,11 @@
       <c r="C364">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F364">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A365" t="s">
         <v>186</v>
       </c>
@@ -10627,8 +10672,11 @@
       <c r="C365">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F365">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A366" t="s">
         <v>187</v>
       </c>
@@ -10638,8 +10686,11 @@
       <c r="C366">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F366">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A367" t="s">
         <v>188</v>
       </c>
@@ -10649,8 +10700,11 @@
       <c r="C367">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F367">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A368" t="s">
         <v>189</v>
       </c>
@@ -10660,8 +10714,11 @@
       <c r="C368">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F368">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A369" t="s">
         <v>190</v>
       </c>
@@ -10671,8 +10728,11 @@
       <c r="C369">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F369">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A370" t="s">
         <v>193</v>
       </c>
@@ -10682,8 +10742,11 @@
       <c r="C370">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F370">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A371" t="s">
         <v>194</v>
       </c>
@@ -10693,8 +10756,11 @@
       <c r="C371">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F371">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A372" t="s">
         <v>605</v>
       </c>
@@ -10704,8 +10770,11 @@
       <c r="C372">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F372">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A373" t="s">
         <v>606</v>
       </c>
@@ -10715,8 +10784,11 @@
       <c r="C373">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F373">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A374" t="s">
         <v>607</v>
       </c>
@@ -10726,8 +10798,11 @@
       <c r="C374">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F374">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A375" t="s">
         <v>608</v>
       </c>
@@ -10737,8 +10812,11 @@
       <c r="C375">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F375">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A376" t="s">
         <v>609</v>
       </c>
@@ -10748,8 +10826,11 @@
       <c r="C376">
         <v>2</v>
       </c>
-    </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F376">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A377" t="s">
         <v>610</v>
       </c>
@@ -10759,8 +10840,11 @@
       <c r="C377">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F377">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A378" t="s">
         <v>611</v>
       </c>
@@ -10770,8 +10854,11 @@
       <c r="C378">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F378">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A379" t="s">
         <v>612</v>
       </c>
@@ -10781,8 +10868,11 @@
       <c r="C379">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F379">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A380" t="s">
         <v>613</v>
       </c>
@@ -10792,8 +10882,11 @@
       <c r="C380">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F380">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A381" t="s">
         <v>614</v>
       </c>
@@ -10803,8 +10896,11 @@
       <c r="C381">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F381">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A382" t="s">
         <v>615</v>
       </c>
@@ -10814,8 +10910,11 @@
       <c r="C382">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F382">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A383" t="s">
         <v>616</v>
       </c>
@@ -10825,8 +10924,11 @@
       <c r="C383">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F383">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A384" t="s">
         <v>617</v>
       </c>
@@ -10836,8 +10938,11 @@
       <c r="C384">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F384">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A385" t="s">
         <v>673</v>
       </c>
@@ -10847,8 +10952,11 @@
       <c r="C385">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F385">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A386" t="s">
         <v>674</v>
       </c>
@@ -10858,8 +10966,11 @@
       <c r="C386">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F386">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A387" t="s">
         <v>675</v>
       </c>
@@ -10869,8 +10980,11 @@
       <c r="C387">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F387">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A388" t="s">
         <v>676</v>
       </c>
@@ -10880,8 +10994,11 @@
       <c r="C388">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F388">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A389" t="s">
         <v>677</v>
       </c>
@@ -10891,8 +11008,11 @@
       <c r="C389">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F389">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A390" t="s">
         <v>678</v>
       </c>
@@ -10902,8 +11022,11 @@
       <c r="C390">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F390">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A391" t="s">
         <v>679</v>
       </c>
@@ -10913,8 +11036,11 @@
       <c r="C391">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F391">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A392" t="s">
         <v>680</v>
       </c>
@@ -10924,8 +11050,11 @@
       <c r="C392">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F392">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A393" t="s">
         <v>681</v>
       </c>
@@ -10935,8 +11064,11 @@
       <c r="C393">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F393">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A394" t="s">
         <v>682</v>
       </c>
@@ -10946,8 +11078,11 @@
       <c r="C394">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F394">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A395" t="s">
         <v>683</v>
       </c>
@@ -10957,8 +11092,11 @@
       <c r="C395">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F395">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A396" t="s">
         <v>684</v>
       </c>
@@ -10968,8 +11106,11 @@
       <c r="C396">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F396">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A397" t="s">
         <v>685</v>
       </c>
@@ -10979,8 +11120,11 @@
       <c r="C397">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F397">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A398" t="s">
         <v>686</v>
       </c>
@@ -10990,8 +11134,11 @@
       <c r="C398">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F398">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A399" t="s">
         <v>687</v>
       </c>
@@ -11001,8 +11148,11 @@
       <c r="C399">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F399">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A400" t="s">
         <v>688</v>
       </c>
@@ -11012,8 +11162,11 @@
       <c r="C400">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F400">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A401" t="s">
         <v>689</v>
       </c>
@@ -11023,8 +11176,11 @@
       <c r="C401">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F401">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A402" t="s">
         <v>690</v>
       </c>
@@ -11034,8 +11190,11 @@
       <c r="C402">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F402">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A403" t="s">
         <v>691</v>
       </c>
@@ -11045,8 +11204,11 @@
       <c r="C403">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F403">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A404" t="s">
         <v>692</v>
       </c>
@@ -11056,8 +11218,11 @@
       <c r="C404">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F404">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A405" t="s">
         <v>693</v>
       </c>
@@ -11067,8 +11232,11 @@
       <c r="C405">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F405">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A406" t="s">
         <v>694</v>
       </c>
@@ -11078,8 +11246,11 @@
       <c r="C406">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F406">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A407" t="s">
         <v>695</v>
       </c>
@@ -11089,8 +11260,11 @@
       <c r="C407">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F407">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A408" t="s">
         <v>696</v>
       </c>
@@ -11100,8 +11274,11 @@
       <c r="C408">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F408">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A409" t="s">
         <v>697</v>
       </c>
@@ -11111,8 +11288,11 @@
       <c r="C409">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F409">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A410" t="s">
         <v>698</v>
       </c>
@@ -11122,8 +11302,11 @@
       <c r="C410">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F410">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A411" t="s">
         <v>699</v>
       </c>
@@ -11133,8 +11316,11 @@
       <c r="C411">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F411">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A412" t="s">
         <v>700</v>
       </c>
@@ -11144,8 +11330,11 @@
       <c r="C412">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F412">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A413" t="s">
         <v>701</v>
       </c>
@@ -11155,8 +11344,11 @@
       <c r="C413">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F413">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A414" t="s">
         <v>702</v>
       </c>
@@ -11166,8 +11358,11 @@
       <c r="C414">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F414">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A415" t="s">
         <v>703</v>
       </c>
@@ -11177,8 +11372,11 @@
       <c r="C415">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F415">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A416" t="s">
         <v>704</v>
       </c>
@@ -11188,8 +11386,11 @@
       <c r="C416">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F416">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A417" t="s">
         <v>705</v>
       </c>
@@ -11199,8 +11400,11 @@
       <c r="C417">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F417">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A418" t="s">
         <v>706</v>
       </c>
@@ -11210,8 +11414,11 @@
       <c r="C418">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F418">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A419" t="s">
         <v>707</v>
       </c>
@@ -11221,8 +11428,11 @@
       <c r="C419">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F419">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A420" t="s">
         <v>708</v>
       </c>
@@ -11232,8 +11442,11 @@
       <c r="C420">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F420">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A421" t="s">
         <v>709</v>
       </c>
@@ -11243,8 +11456,11 @@
       <c r="C421">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F421">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A422" t="s">
         <v>710</v>
       </c>
@@ -11254,8 +11470,11 @@
       <c r="C422">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F422">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A423" t="s">
         <v>711</v>
       </c>
@@ -11265,8 +11484,11 @@
       <c r="C423">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F423">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A424" t="s">
         <v>712</v>
       </c>
@@ -11276,8 +11498,11 @@
       <c r="C424">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F424">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A425" t="s">
         <v>713</v>
       </c>
@@ -11287,8 +11512,11 @@
       <c r="C425">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F425">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A426" t="s">
         <v>714</v>
       </c>
@@ -11298,8 +11526,11 @@
       <c r="C426">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A427" t="s">
         <v>715</v>
       </c>
@@ -11309,8 +11540,11 @@
       <c r="C427">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F427">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A428" t="s">
         <v>716</v>
       </c>
@@ -11320,8 +11554,11 @@
       <c r="C428">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F428">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A429" t="s">
         <v>717</v>
       </c>
@@ -11331,8 +11568,11 @@
       <c r="C429">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F429">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A430" t="s">
         <v>718</v>
       </c>
@@ -11342,8 +11582,11 @@
       <c r="C430">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F430">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A431" t="s">
         <v>719</v>
       </c>
@@ -11353,8 +11596,11 @@
       <c r="C431">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F431">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A432" t="s">
         <v>720</v>
       </c>
@@ -11364,8 +11610,11 @@
       <c r="C432">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F432">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A433" t="s">
         <v>721</v>
       </c>
@@ -11375,8 +11624,11 @@
       <c r="C433">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F433">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A434" t="s">
         <v>722</v>
       </c>
@@ -11386,8 +11638,11 @@
       <c r="C434">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F434">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A435" t="s">
         <v>723</v>
       </c>
@@ -11397,8 +11652,11 @@
       <c r="C435">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F435">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A436" t="s">
         <v>724</v>
       </c>
@@ -11408,8 +11666,11 @@
       <c r="C436">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F436">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A437" t="s">
         <v>725</v>
       </c>
@@ -11419,8 +11680,11 @@
       <c r="C437">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F437">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A438" t="s">
         <v>726</v>
       </c>
@@ -11430,8 +11694,11 @@
       <c r="C438">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F438">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A439" t="s">
         <v>727</v>
       </c>
@@ -11441,8 +11708,11 @@
       <c r="C439">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F439">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A440" t="s">
         <v>728</v>
       </c>
@@ -11452,8 +11722,11 @@
       <c r="C440">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F440">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A441" t="s">
         <v>729</v>
       </c>
@@ -11463,8 +11736,11 @@
       <c r="C441">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F441">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A442" t="s">
         <v>730</v>
       </c>
@@ -11474,8 +11750,11 @@
       <c r="C442">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F442">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A443" t="s">
         <v>731</v>
       </c>
@@ -11485,8 +11764,11 @@
       <c r="C443">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F443">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A444" t="s">
         <v>732</v>
       </c>
@@ -11496,8 +11778,11 @@
       <c r="C444">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F444">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A445" t="s">
         <v>733</v>
       </c>
@@ -11507,8 +11792,11 @@
       <c r="C445">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F445">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A446" t="s">
         <v>734</v>
       </c>
@@ -11518,8 +11806,11 @@
       <c r="C446">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F446">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A447" t="s">
         <v>735</v>
       </c>
@@ -11529,8 +11820,11 @@
       <c r="C447">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F447">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A448" t="s">
         <v>736</v>
       </c>
@@ -11540,8 +11834,11 @@
       <c r="C448">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F448">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A449" t="s">
         <v>737</v>
       </c>
@@ -11551,8 +11848,11 @@
       <c r="C449">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F449">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A450" t="s">
         <v>738</v>
       </c>
@@ -11562,8 +11862,11 @@
       <c r="C450">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F450">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A451" t="s">
         <v>739</v>
       </c>
@@ -11573,8 +11876,11 @@
       <c r="C451">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F451">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A452" t="s">
         <v>740</v>
       </c>
@@ -11584,8 +11890,11 @@
       <c r="C452">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F452">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A453" t="s">
         <v>741</v>
       </c>
@@ -11595,8 +11904,11 @@
       <c r="C453">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F453">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A454" t="s">
         <v>742</v>
       </c>
@@ -11606,8 +11918,11 @@
       <c r="C454">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F454">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A455" t="s">
         <v>743</v>
       </c>
@@ -11617,8 +11932,11 @@
       <c r="C455">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F455">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A456" t="s">
         <v>744</v>
       </c>
@@ -11628,8 +11946,11 @@
       <c r="C456">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F456">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A457" t="s">
         <v>745</v>
       </c>
@@ -11639,8 +11960,11 @@
       <c r="C457">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F457">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A458" t="s">
         <v>746</v>
       </c>
@@ -11650,8 +11974,11 @@
       <c r="C458">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F458">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A459" t="s">
         <v>747</v>
       </c>
@@ -11661,8 +11988,11 @@
       <c r="C459">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F459">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A460" t="s">
         <v>748</v>
       </c>
@@ -11672,8 +12002,11 @@
       <c r="C460">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F460">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A461" t="s">
         <v>749</v>
       </c>
@@ -11683,8 +12016,11 @@
       <c r="C461">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F461">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A462" t="s">
         <v>750</v>
       </c>
@@ -11694,8 +12030,11 @@
       <c r="C462">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F462">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A463" t="s">
         <v>751</v>
       </c>
@@ -11705,8 +12044,11 @@
       <c r="C463">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F463">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A464" t="s">
         <v>752</v>
       </c>
@@ -11716,8 +12058,11 @@
       <c r="C464">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F464">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A465" t="s">
         <v>753</v>
       </c>
@@ -11727,8 +12072,11 @@
       <c r="C465">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F465">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A466" t="s">
         <v>754</v>
       </c>
@@ -11738,8 +12086,11 @@
       <c r="C466">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F466">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A467" t="s">
         <v>755</v>
       </c>
@@ -11749,8 +12100,11 @@
       <c r="C467">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F467">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A468" t="s">
         <v>756</v>
       </c>
@@ -11760,8 +12114,11 @@
       <c r="C468">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F468">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A469" t="s">
         <v>757</v>
       </c>
@@ -11771,8 +12128,11 @@
       <c r="C469">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F469">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A470" t="s">
         <v>758</v>
       </c>
@@ -11782,8 +12142,11 @@
       <c r="C470">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F470">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="471" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A471" t="s">
         <v>759</v>
       </c>
@@ -11793,8 +12156,11 @@
       <c r="C471">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F471">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="472" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A472" t="s">
         <v>760</v>
       </c>
@@ -11804,8 +12170,11 @@
       <c r="C472">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F472">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A473" t="s">
         <v>761</v>
       </c>
@@ -11815,8 +12184,11 @@
       <c r="C473">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F473">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A474" t="s">
         <v>762</v>
       </c>
@@ -11826,8 +12198,11 @@
       <c r="C474">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F474">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A475" t="s">
         <v>763</v>
       </c>
@@ -11837,8 +12212,11 @@
       <c r="C475">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F475">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A476" t="s">
         <v>764</v>
       </c>
@@ -11848,8 +12226,11 @@
       <c r="C476">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F476">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A477" t="s">
         <v>765</v>
       </c>
@@ -11859,8 +12240,11 @@
       <c r="C477">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F477">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A478" t="s">
         <v>766</v>
       </c>
@@ -11870,8 +12254,11 @@
       <c r="C478">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F478">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A479" t="s">
         <v>767</v>
       </c>
@@ -11881,8 +12268,11 @@
       <c r="C479">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F479">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A480" t="s">
         <v>768</v>
       </c>
@@ -11892,8 +12282,11 @@
       <c r="C480">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F480">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A481" t="s">
         <v>769</v>
       </c>
@@ -11903,8 +12296,11 @@
       <c r="C481">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F481">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A482" t="s">
         <v>770</v>
       </c>
@@ -11914,8 +12310,11 @@
       <c r="C482">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F482">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="483" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A483" t="s">
         <v>771</v>
       </c>
@@ -11925,8 +12324,11 @@
       <c r="C483">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F483">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="484" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A484" t="s">
         <v>772</v>
       </c>
@@ -11936,8 +12338,11 @@
       <c r="C484">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F484">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="485" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A485" t="s">
         <v>773</v>
       </c>
@@ -11947,8 +12352,11 @@
       <c r="C485">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F485">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="486" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A486" t="s">
         <v>774</v>
       </c>
@@ -11958,8 +12366,11 @@
       <c r="C486">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F486">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="487" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A487" t="s">
         <v>775</v>
       </c>
@@ -11969,8 +12380,11 @@
       <c r="C487">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F487">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="488" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A488" t="s">
         <v>776</v>
       </c>
@@ -11980,8 +12394,11 @@
       <c r="C488">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F488">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="489" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A489" t="s">
         <v>777</v>
       </c>
@@ -11991,8 +12408,11 @@
       <c r="C489">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F489">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="490" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A490" t="s">
         <v>778</v>
       </c>
@@ -12002,8 +12422,11 @@
       <c r="C490">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F490">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="491" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A491" t="s">
         <v>779</v>
       </c>
@@ -12013,8 +12436,11 @@
       <c r="C491">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F491">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="492" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A492" t="s">
         <v>780</v>
       </c>
@@ -12024,8 +12450,11 @@
       <c r="C492">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F492">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="493" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A493" t="s">
         <v>781</v>
       </c>
@@ -12035,8 +12464,11 @@
       <c r="C493">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F493">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="494" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A494" t="s">
         <v>782</v>
       </c>
@@ -12046,8 +12478,11 @@
       <c r="C494">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F494">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="495" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A495" t="s">
         <v>783</v>
       </c>
@@ -12057,8 +12492,11 @@
       <c r="C495">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F495">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="496" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A496" t="s">
         <v>784</v>
       </c>
@@ -12068,8 +12506,11 @@
       <c r="C496">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F496">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="497" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A497" t="s">
         <v>785</v>
       </c>
@@ -12079,8 +12520,11 @@
       <c r="C497">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F497">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="498" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A498" t="s">
         <v>786</v>
       </c>
@@ -12090,8 +12534,11 @@
       <c r="C498">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F498">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="499" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A499" t="s">
         <v>787</v>
       </c>
@@ -12101,8 +12548,11 @@
       <c r="C499">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F499">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="500" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A500" t="s">
         <v>788</v>
       </c>
@@ -12112,8 +12562,11 @@
       <c r="C500">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F500">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="501" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A501" t="s">
         <v>789</v>
       </c>
@@ -12123,8 +12576,11 @@
       <c r="C501">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F501">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="502" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A502" t="s">
         <v>790</v>
       </c>
@@ -12134,8 +12590,11 @@
       <c r="C502">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F502">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="503" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A503" t="s">
         <v>791</v>
       </c>
@@ -12145,8 +12604,11 @@
       <c r="C503">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F503">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="504" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A504" t="s">
         <v>792</v>
       </c>
@@ -12156,8 +12618,11 @@
       <c r="C504">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F504">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="505" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A505" t="s">
         <v>793</v>
       </c>
@@ -12167,8 +12632,11 @@
       <c r="C505">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F505">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="506" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A506" t="s">
         <v>794</v>
       </c>
@@ -12178,8 +12646,11 @@
       <c r="C506">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F506">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="507" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A507" t="s">
         <v>795</v>
       </c>
@@ -12189,8 +12660,11 @@
       <c r="C507">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F507">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="508" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A508" t="s">
         <v>796</v>
       </c>
@@ -12200,8 +12674,11 @@
       <c r="C508">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F508">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="509" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A509" t="s">
         <v>797</v>
       </c>
@@ -12211,8 +12688,11 @@
       <c r="C509">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F509">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="510" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A510" t="s">
         <v>798</v>
       </c>
@@ -12222,8 +12702,11 @@
       <c r="C510">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F510">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="511" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A511" t="s">
         <v>799</v>
       </c>
@@ -12233,8 +12716,11 @@
       <c r="C511">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F511">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="512" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A512" t="s">
         <v>800</v>
       </c>
@@ -12244,8 +12730,11 @@
       <c r="C512">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="513" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F512">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="513" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A513" t="s">
         <v>801</v>
       </c>
@@ -12255,8 +12744,11 @@
       <c r="C513">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="514" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F513">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="514" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A514" t="s">
         <v>802</v>
       </c>
@@ -12266,8 +12758,11 @@
       <c r="C514">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="515" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F514">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="515" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A515" t="s">
         <v>803</v>
       </c>
@@ -12277,8 +12772,11 @@
       <c r="C515">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="516" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F515">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="516" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A516" t="s">
         <v>804</v>
       </c>
@@ -12288,8 +12786,11 @@
       <c r="C516">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="517" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F516">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="517" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A517" t="s">
         <v>805</v>
       </c>
@@ -12299,8 +12800,11 @@
       <c r="C517">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="518" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F517">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="518" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A518" t="s">
         <v>806</v>
       </c>
@@ -12310,8 +12814,11 @@
       <c r="C518">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="519" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F518">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="519" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A519" t="s">
         <v>807</v>
       </c>
@@ -12321,8 +12828,11 @@
       <c r="C519">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="520" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F519">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="520" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A520" t="s">
         <v>808</v>
       </c>
@@ -12332,8 +12842,11 @@
       <c r="C520">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="521" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F520">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="521" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A521" t="s">
         <v>809</v>
       </c>
@@ -12343,8 +12856,11 @@
       <c r="C521">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="522" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F521">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="522" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A522" t="s">
         <v>810</v>
       </c>
@@ -12354,8 +12870,11 @@
       <c r="C522">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="523" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F522">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="523" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A523" t="s">
         <v>811</v>
       </c>
@@ -12365,8 +12884,11 @@
       <c r="C523">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="524" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F523">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="524" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A524" t="s">
         <v>812</v>
       </c>
@@ -12376,8 +12898,11 @@
       <c r="C524">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="525" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F524">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="525" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A525" t="s">
         <v>813</v>
       </c>
@@ -12387,8 +12912,11 @@
       <c r="C525">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="526" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F525">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="526" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A526" t="s">
         <v>814</v>
       </c>
@@ -12398,8 +12926,11 @@
       <c r="C526">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="527" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F526">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="527" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A527" t="s">
         <v>815</v>
       </c>
@@ -12409,8 +12940,11 @@
       <c r="C527">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="528" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="F527">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="528" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A528" t="s">
         <v>816</v>
       </c>
@@ -12420,8 +12954,11 @@
       <c r="C528">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="529" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F528">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="529" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A529" t="s">
         <v>817</v>
       </c>
@@ -12431,8 +12968,11 @@
       <c r="C529">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="530" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F529">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="530" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A530" t="s">
         <v>818</v>
       </c>
@@ -12442,8 +12982,11 @@
       <c r="C530">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="531" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F530">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="531" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A531" t="s">
         <v>819</v>
       </c>
@@ -12453,8 +12996,11 @@
       <c r="C531">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="532" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F531">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="532" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A532" t="s">
         <v>820</v>
       </c>
@@ -12464,8 +13010,11 @@
       <c r="C532">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="533" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F532">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="533" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A533" t="s">
         <v>821</v>
       </c>
@@ -12475,8 +13024,11 @@
       <c r="C533">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="534" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F533">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="534" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A534" t="s">
         <v>822</v>
       </c>
@@ -12486,8 +13038,11 @@
       <c r="C534">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="535" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F534">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="535" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A535" t="s">
         <v>823</v>
       </c>
@@ -12497,8 +13052,11 @@
       <c r="C535">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="536" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F535">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="536" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A536" t="s">
         <v>824</v>
       </c>
@@ -12508,8 +13066,11 @@
       <c r="C536">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="537" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F536">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="537" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A537" t="s">
         <v>825</v>
       </c>
@@ -12519,8 +13080,11 @@
       <c r="C537">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="538" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F537">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="538" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A538" t="s">
         <v>826</v>
       </c>
@@ -12530,8 +13094,11 @@
       <c r="C538">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="539" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F538">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="539" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A539" t="s">
         <v>827</v>
       </c>
@@ -12541,8 +13108,11 @@
       <c r="C539">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="540" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F539">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="540" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A540" t="s">
         <v>828</v>
       </c>
@@ -12552,8 +13122,11 @@
       <c r="C540">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="541" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F540">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="541" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A541" t="s">
         <v>829</v>
       </c>
@@ -12563,8 +13136,11 @@
       <c r="C541">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="542" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F541">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="542" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A542" t="s">
         <v>830</v>
       </c>
@@ -12574,8 +13150,11 @@
       <c r="C542">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="543" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F542">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="543" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A543" t="s">
         <v>831</v>
       </c>
@@ -12585,8 +13164,11 @@
       <c r="C543">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="544" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F543">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="544" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A544" t="s">
         <v>833</v>
       </c>
@@ -21782,7 +22364,7 @@
       </c>
       <c r="O2" s="21" t="str" cm="1">
         <f t="array" aca="1" ref="O2" ca="1">INDEX(A2:A128,RANDBETWEEN(1,127))</f>
-        <v>Holztruhe 150 x 100 cm</v>
+        <v>Stainwurmsäure</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.5">
@@ -21824,7 +22406,7 @@
       </c>
       <c r="O3" s="21" t="str" cm="1">
         <f t="array" aca="1" ref="O3" ca="1">INDEX(A3:A129,RANDBETWEEN(1,127))</f>
-        <v>Geschnitzte Figur</v>
+        <v>Siegel eines Ruhehofbewahrer</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.5">
@@ -21866,7 +22448,7 @@
       </c>
       <c r="O4" s="21" t="str" cm="1">
         <f t="array" aca="1" ref="O4" ca="1">INDEX(A4:A130,RANDBETWEEN(1,127))</f>
-        <v>Kochlöffel</v>
+        <v>Lindwurmaut</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.5">
@@ -21908,7 +22490,7 @@
       </c>
       <c r="O5" s="21" t="str" cm="1">
         <f t="array" aca="1" ref="O5" ca="1">INDEX(A5:A131,RANDBETWEEN(1,127))</f>
-        <v>Holzschwert</v>
+        <v>Bombenflasche</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.5">
@@ -21950,7 +22532,7 @@
       </c>
       <c r="O6" s="21" t="str" cm="1">
         <f t="array" aca="1" ref="O6" ca="1">INDEX(A6:A132,RANDBETWEEN(1,127))</f>
-        <v>Rahkari Schnaps</v>
+        <v>Brief</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.5">
@@ -21992,7 +22574,7 @@
       </c>
       <c r="O7" s="21" t="str" cm="1">
         <f t="array" aca="1" ref="O7" ca="1">INDEX(A7:A133,RANDBETWEEN(1,127))</f>
-        <v>Fächer</v>
+        <v>Leinen</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.5">
@@ -22034,7 +22616,7 @@
       </c>
       <c r="O8" s="21" t="str" cm="1">
         <f t="array" aca="1" ref="O8" ca="1">INDEX(A8:A134,RANDBETWEEN(1,127))</f>
-        <v>Goldkette</v>
+        <v>Spielzeugritter</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.5">
@@ -22076,7 +22658,7 @@
       </c>
       <c r="O9" s="21" t="str" cm="1">
         <f t="array" aca="1" ref="O9" ca="1">INDEX(A9:A135,RANDBETWEEN(1,127))</f>
-        <v>Lindwurmaut</v>
+        <v>Bohneneintopf</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.5">
@@ -22118,7 +22700,7 @@
       </c>
       <c r="O10" s="21" t="str" cm="1">
         <f t="array" aca="1" ref="O10" ca="1">INDEX(A10:A136,RANDBETWEEN(1,127))</f>
-        <v>Rose</v>
+        <v>Goldbarren</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.5">
@@ -22160,7 +22742,7 @@
       </c>
       <c r="O11" s="21" t="str" cm="1">
         <f t="array" aca="1" ref="O11" ca="1">INDEX(A11:A137,RANDBETWEEN(1,127))</f>
-        <v>Schrat</v>
+        <v>Merkwürdiges Metall</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.5">
@@ -22202,7 +22784,7 @@
       </c>
       <c r="O12" s="21" t="str" cm="1">
         <f t="array" aca="1" ref="O12" ca="1">INDEX(A12:A138,RANDBETWEEN(1,127))</f>
-        <v>Kartoffelsack</v>
+        <v>Merkwürdiges Metall</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.5">
@@ -22244,7 +22826,7 @@
       </c>
       <c r="O13" s="21" t="str" cm="1">
         <f t="array" aca="1" ref="O13" ca="1">INDEX(A13:A139,RANDBETWEEN(1,127))</f>
-        <v>Geschnitzte Figur</v>
+        <v>Siegel eines Ruhehofbewahrer</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.5">
@@ -22286,7 +22868,7 @@
       </c>
       <c r="O14" s="21" t="str" cm="1">
         <f t="array" aca="1" ref="O14" ca="1">INDEX(A14:A140,RANDBETWEEN(1,127))</f>
-        <v>Warmes Metall</v>
+        <v>Einpersonen Zelt</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.5">
@@ -22328,7 +22910,7 @@
       </c>
       <c r="O15" s="21" t="str" cm="1">
         <f t="array" aca="1" ref="O15" ca="1">INDEX(A15:A141,RANDBETWEEN(1,127))</f>
-        <v>Gute Wurst</v>
+        <v>Bohneneintopf</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.5">
@@ -22370,7 +22952,7 @@
       </c>
       <c r="O16" s="21" t="str" cm="1">
         <f t="array" aca="1" ref="O16" ca="1">INDEX(A16:A142,RANDBETWEEN(1,127))</f>
-        <v>Holztruhe 150 x 100 cm</v>
+        <v>Schweinekopf</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.5">
@@ -22412,7 +22994,7 @@
       </c>
       <c r="O17" s="21" t="str" cm="1">
         <f t="array" aca="1" ref="O17" ca="1">INDEX(A17:A143,RANDBETWEEN(1,127))</f>
-        <v>Gifttrank S3 M</v>
+        <v>Enterhaken</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.5">
@@ -22454,7 +23036,7 @@
       </c>
       <c r="O18" s="21" t="str" cm="1">
         <f t="array" aca="1" ref="O18" ca="1">INDEX(A18:A144,RANDBETWEEN(1,127))</f>
-        <v>Seife</v>
+        <v>Spielzeugritter</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.5">
@@ -22496,7 +23078,7 @@
       </c>
       <c r="O19" s="21" t="str" cm="1">
         <f t="array" aca="1" ref="O19" ca="1">INDEX(A19:A145,RANDBETWEEN(1,127))</f>
-        <v>Gifttrank S4 M</v>
+        <v>Metallflasche</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.5">
@@ -22538,7 +23120,7 @@
       </c>
       <c r="O20" s="21" t="str" cm="1">
         <f t="array" aca="1" ref="O20" ca="1">INDEX(A20:A146,RANDBETWEEN(1,127))</f>
-        <v>Kleiner Siegelstein</v>
+        <v>Gifttrank S1 M</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.5">
@@ -22580,7 +23162,7 @@
       </c>
       <c r="O21" s="21" t="str" cm="1">
         <f t="array" aca="1" ref="O21" ca="1">INDEX(A21:A147,RANDBETWEEN(1,127))</f>
-        <v>Papier</v>
+        <v>Buch</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.5">
@@ -22622,7 +23204,7 @@
       </c>
       <c r="O22" s="21" t="str" cm="1">
         <f t="array" aca="1" ref="O22" ca="1">INDEX(A22:A148,RANDBETWEEN(1,127))</f>
-        <v>Schlafsack</v>
+        <v>Holztruhe 150 x 100 cm</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.5">
@@ -22664,7 +23246,7 @@
       </c>
       <c r="O23" s="21" t="str" cm="1">
         <f t="array" aca="1" ref="O23" ca="1">INDEX(A23:A149,RANDBETWEEN(1,127))</f>
-        <v>Feuerstahl</v>
+        <v>Silbergabel</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.5">
@@ -22706,7 +23288,7 @@
       </c>
       <c r="O24" s="21" t="str" cm="1">
         <f t="array" aca="1" ref="O24" ca="1">INDEX(A24:A150,RANDBETWEEN(1,127))</f>
-        <v>Leder</v>
+        <v>Parfüm</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.5">
@@ -22748,7 +23330,7 @@
       </c>
       <c r="O25" s="21" t="str" cm="1">
         <f t="array" aca="1" ref="O25" ca="1">INDEX(A25:A151,RANDBETWEEN(1,127))</f>
-        <v>Paralysetrank S6 M</v>
+        <v>Eisenkette 5 m</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.5">
@@ -22790,7 +23372,7 @@
       </c>
       <c r="O26" s="21" t="str" cm="1">
         <f t="array" aca="1" ref="O26" ca="1">INDEX(A26:A152,RANDBETWEEN(1,127))</f>
-        <v>Gehstock</v>
+        <v>Spielkarten</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.5">
@@ -22832,7 +23414,7 @@
       </c>
       <c r="O27" s="21" t="str" cm="1">
         <f t="array" aca="1" ref="O27" ca="1">INDEX(A27:A153,RANDBETWEEN(1,127))</f>
-        <v>Holzstab</v>
+        <v>Heiltrank S4 M</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.5">
@@ -22874,7 +23456,7 @@
       </c>
       <c r="O28" s="21" t="str" cm="1">
         <f t="array" aca="1" ref="O28" ca="1">INDEX(A28:A154,RANDBETWEEN(1,127))</f>
-        <v>Siegel eines Ruhehofbewahrer</v>
+        <v>Stofftier</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.5">
@@ -22916,7 +23498,7 @@
       </c>
       <c r="O29" s="21" t="str" cm="1">
         <f t="array" aca="1" ref="O29" ca="1">INDEX(A29:A155,RANDBETWEEN(1,127))</f>
-        <v>Holztisch Groß</v>
+        <v>Kleiner Lederbeutel</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.5">
@@ -22958,7 +23540,7 @@
       </c>
       <c r="O30" s="21" t="str" cm="1">
         <f t="array" aca="1" ref="O30" ca="1">INDEX(A30:A156,RANDBETWEEN(1,127))</f>
-        <v>Bombenflasche</v>
+        <v>Leder</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.5">
@@ -23000,7 +23582,7 @@
       </c>
       <c r="O31" s="21" t="str" cm="1">
         <f t="array" aca="1" ref="O31" ca="1">INDEX(A31:A157,RANDBETWEEN(1,127))</f>
-        <v>Feuerpilz</v>
+        <v>Eisenkette 5 m</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.5">
@@ -23042,7 +23624,7 @@
       </c>
       <c r="O32" s="21" t="str" cm="1">
         <f t="array" aca="1" ref="O32" ca="1">INDEX(A32:A158,RANDBETWEEN(1,127))</f>
-        <v>Blumenstrauß</v>
+        <v>Metallflasche</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.5">
@@ -23084,7 +23666,7 @@
       </c>
       <c r="O33" s="21" t="str" cm="1">
         <f t="array" aca="1" ref="O33" ca="1">INDEX(A33:A159,RANDBETWEEN(1,127))</f>
-        <v>Adrenalinika S4 M</v>
+        <v>Bärenfalle</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.5">
@@ -23126,7 +23708,7 @@
       </c>
       <c r="O34" s="21" t="str" cm="1">
         <f t="array" aca="1" ref="O34" ca="1">INDEX(A34:A160,RANDBETWEEN(1,127))</f>
-        <v>Heiltrank S3 M</v>
+        <v>Holztisch Groß</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.5">
@@ -23168,7 +23750,7 @@
       </c>
       <c r="O35" s="21" t="str" cm="1">
         <f t="array" aca="1" ref="O35" ca="1">INDEX(A35:A161,RANDBETWEEN(1,127))</f>
-        <v>Blumenstrauß</v>
+        <v>Fächer</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.5">
@@ -23210,7 +23792,7 @@
       </c>
       <c r="O36" s="21" t="str" cm="1">
         <f t="array" aca="1" ref="O36" ca="1">INDEX(A36:A162,RANDBETWEEN(1,127))</f>
-        <v>Nebelgrantika S4 B</v>
+        <v>Quarzkristall</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.5">
@@ -23252,7 +23834,7 @@
       </c>
       <c r="O37" s="21" t="str" cm="1">
         <f t="array" aca="1" ref="O37" ca="1">INDEX(A37:A163,RANDBETWEEN(1,127))</f>
-        <v>Gegengifttrank S3 M</v>
+        <v>Ausdauertrank S4 M</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.5">
@@ -23294,7 +23876,7 @@
       </c>
       <c r="O38" s="21" t="str" cm="1">
         <f t="array" aca="1" ref="O38" ca="1">INDEX(A38:A164,RANDBETWEEN(1,127))</f>
-        <v>Schlafsack</v>
+        <v>Zwergenstahlbarren</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.5">
@@ -23336,7 +23918,7 @@
       </c>
       <c r="O39" s="21" t="str" cm="1">
         <f t="array" aca="1" ref="O39" ca="1">INDEX(A39:A165,RANDBETWEEN(1,127))</f>
-        <v>Sicht S2 M</v>
+        <v>Leinen</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.5">
@@ -23378,7 +23960,7 @@
       </c>
       <c r="O40" s="21" t="str" cm="1">
         <f t="array" aca="1" ref="O40" ca="1">INDEX(A40:A166,RANDBETWEEN(1,127))</f>
-        <v>Adrenalinika S6 M</v>
+        <v>Schlafsack</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.5">
@@ -23420,7 +24002,7 @@
       </c>
       <c r="O41" s="21" t="str" cm="1">
         <f t="array" aca="1" ref="O41" ca="1">INDEX(A41:A167,RANDBETWEEN(1,127))</f>
-        <v>Gifttrank S1 M</v>
+        <v>Euphorika S2 M</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.5">
@@ -23462,7 +24044,7 @@
       </c>
       <c r="O42" s="21" t="str" cm="1">
         <f t="array" aca="1" ref="O42" ca="1">INDEX(A42:A168,RANDBETWEEN(1,127))</f>
-        <v>Bärenfalle</v>
+        <v>Paralysetrank S6 M</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.5">
@@ -23504,7 +24086,7 @@
       </c>
       <c r="O43" s="21" t="str" cm="1">
         <f t="array" aca="1" ref="O43" ca="1">INDEX(A43:A169,RANDBETWEEN(1,127))</f>
-        <v>Spielzeugritter</v>
+        <v>Feuerstahl</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.5">
@@ -23546,7 +24128,7 @@
       </c>
       <c r="O44" s="21" t="str" cm="1">
         <f t="array" aca="1" ref="O44" ca="1">INDEX(A44:A170,RANDBETWEEN(1,127))</f>
-        <v>Strickleiter</v>
+        <v>Einpersonen Zelt</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.5">
@@ -23588,7 +24170,7 @@
       </c>
       <c r="O45" s="21" t="str" cm="1">
         <f t="array" aca="1" ref="O45" ca="1">INDEX(A45:A171,RANDBETWEEN(1,127))</f>
-        <v>Rose</v>
+        <v>Geschnitzte Figur</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.5">
@@ -23630,7 +24212,7 @@
       </c>
       <c r="O46" s="21" t="str" cm="1">
         <f t="array" aca="1" ref="O46" ca="1">INDEX(A46:A172,RANDBETWEEN(1,127))</f>
-        <v>Goldbarren</v>
+        <v>Molotovika S3 B</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.5">
@@ -23672,7 +24254,7 @@
       </c>
       <c r="O47" s="21" t="str" cm="1">
         <f t="array" aca="1" ref="O47" ca="1">INDEX(A47:A173,RANDBETWEEN(1,127))</f>
-        <v>Bärenfalle</v>
+        <v>Euphorika S3 M</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.5">
@@ -23714,7 +24296,7 @@
       </c>
       <c r="O48" s="21" t="str" cm="1">
         <f t="array" aca="1" ref="O48" ca="1">INDEX(A48:A174,RANDBETWEEN(1,127))</f>
-        <v>Enterhaken</v>
+        <v>Aphrodisika S3 M</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.5">
@@ -23756,7 +24338,7 @@
       </c>
       <c r="O49" s="21" t="str" cm="1">
         <f t="array" aca="1" ref="O49" ca="1">INDEX(A49:A175,RANDBETWEEN(1,127))</f>
-        <v>Euphorika S1 M</v>
+        <v>Stofftier</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.5">
@@ -23798,7 +24380,7 @@
       </c>
       <c r="O50" s="21" t="str" cm="1">
         <f t="array" aca="1" ref="O50" ca="1">INDEX(A50:A176,RANDBETWEEN(1,127))</f>
-        <v>Warmes Metall</v>
+        <v>Quarzkristall</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.5">
@@ -23840,7 +24422,7 @@
       </c>
       <c r="O51" s="21" t="str" cm="1">
         <f t="array" aca="1" ref="O51" ca="1">INDEX(A51:A177,RANDBETWEEN(1,127))</f>
-        <v>Bessere Kleidung</v>
+        <v>Gewöhnliche Kleidung</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.5">
@@ -23882,7 +24464,7 @@
       </c>
       <c r="O52" s="21" t="str" cm="1">
         <f t="array" aca="1" ref="O52" ca="1">INDEX(A52:A178,RANDBETWEEN(1,127))</f>
-        <v>Schrat</v>
+        <v>Zweipersonen Zelt</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.5">
@@ -23924,7 +24506,7 @@
       </c>
       <c r="O53" s="21" t="str" cm="1">
         <f t="array" aca="1" ref="O53" ca="1">INDEX(A53:A179,RANDBETWEEN(1,127))</f>
-        <v>Kleiner Lederbeutel</v>
+        <v>Heiltrank S3 M</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.5">
@@ -23966,7 +24548,7 @@
       </c>
       <c r="O54" s="21" t="str" cm="1">
         <f t="array" aca="1" ref="O54" ca="1">INDEX(A54:A180,RANDBETWEEN(1,127))</f>
-        <v>Einpersonen Zelt</v>
+        <v>Euphorika S5 M</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.5">
@@ -24008,7 +24590,7 @@
       </c>
       <c r="O55" s="21" t="str" cm="1">
         <f t="array" aca="1" ref="O55" ca="1">INDEX(A55:A181,RANDBETWEEN(1,127))</f>
-        <v>Kleiner Siegelstein</v>
+        <v>Gegengifttrank S5 M</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.5">
@@ -24050,7 +24632,7 @@
       </c>
       <c r="O56" s="21" t="str" cm="1">
         <f t="array" aca="1" ref="O56" ca="1">INDEX(A56:A182,RANDBETWEEN(1,127))</f>
-        <v>Geweihstücke</v>
+        <v>Madnika S6 M</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.5">
@@ -24092,7 +24674,7 @@
       </c>
       <c r="O57" s="21" t="str" cm="1">
         <f t="array" aca="1" ref="O57" ca="1">INDEX(A57:A183,RANDBETWEEN(1,127))</f>
-        <v>Gifttrank S4 M</v>
+        <v>Nebelgrantika S4 B</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.5">
@@ -24134,7 +24716,7 @@
       </c>
       <c r="O58" s="21" t="str" cm="1">
         <f t="array" aca="1" ref="O58" ca="1">INDEX(A58:A184,RANDBETWEEN(1,127))</f>
-        <v>Adrenalinika S3 M</v>
+        <v>Aphrodisika S3 M</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.5">
@@ -24176,7 +24758,7 @@
       </c>
       <c r="O59" s="21" t="str" cm="1">
         <f t="array" aca="1" ref="O59" ca="1">INDEX(A59:A185,RANDBETWEEN(1,127))</f>
-        <v>Kaisotherz</v>
+        <v>Adrenalinika S6 M</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.5">

--- a/OrbisGame/Container/Data/MiscItemListe.xlsx
+++ b/OrbisGame/Container/Data/MiscItemListe.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr codeName="DieseArbeitsmappe"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Florian\Dropbox\Rpg\Container\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Dropbox\OrbisAstea\Rpg\Container\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19FD3AD4-A380-4807-8348-72CC6507F365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0849299E-BF41-4A9C-8A67-82F84443B029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Alle Gegenstände" sheetId="3" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7601" uniqueCount="1456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7605" uniqueCount="1458">
   <si>
     <t>Tränke</t>
   </si>
@@ -4443,6 +4443,12 @@
   </si>
   <si>
     <t>Irgende eine Art von Knochen Tier</t>
+  </si>
+  <si>
+    <t>Lindwurm Feuerorgan</t>
+  </si>
+  <si>
+    <t>Benötigt für besseres Tränkebrauen</t>
   </si>
 </sst>
 </file>
@@ -4452,7 +4458,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4477,6 +4483,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -4550,10 +4563,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4611,9 +4625,11 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard 2" xfId="1" xr:uid="{CBCBC3E0-F034-4695-945F-A2FB269E5C57}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4892,11 +4908,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{017005DF-956F-49EF-89FF-B49E3106C927}">
   <sheetPr codeName="Tabelle1"/>
-  <dimension ref="A1:M912"/>
+  <dimension ref="A1:M913"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A899" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B913" sqref="B913"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -29440,7 +29456,7 @@
         <v>1.2</v>
       </c>
       <c r="D898" t="str">
-        <f t="shared" ref="D898:D912" si="15">G898&amp;", "&amp;H898&amp;", "&amp;I898&amp;", "&amp;J898&amp;", "&amp;K898&amp;", "&amp;L898&amp;", "&amp;M898</f>
+        <f t="shared" ref="D898:D913" si="15">G898&amp;", "&amp;H898&amp;", "&amp;I898&amp;", "&amp;J898&amp;", "&amp;K898&amp;", "&amp;L898&amp;", "&amp;M898</f>
         <v xml:space="preserve">Hehler, , , Schmied, , , </v>
       </c>
       <c r="E898" s="14" t="s">
@@ -29832,6 +29848,33 @@
       </c>
       <c r="J912" t="s">
         <v>1051</v>
+      </c>
+    </row>
+    <row r="913" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A913" s="23" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B913" s="14">
+        <v>12000</v>
+      </c>
+      <c r="C913" s="14">
+        <v>3</v>
+      </c>
+      <c r="D913" t="str">
+        <f t="shared" si="15"/>
+        <v>, , Alchemist, , , , Kuriositätenhändler</v>
+      </c>
+      <c r="E913" s="14" t="s">
+        <v>1457</v>
+      </c>
+      <c r="F913">
+        <v>1</v>
+      </c>
+      <c r="I913" t="s">
+        <v>1050</v>
+      </c>
+      <c r="M913" t="s">
+        <v>1453</v>
       </c>
     </row>
   </sheetData>
@@ -32980,8 +33023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{130BBDC7-BD56-456A-ADF3-3B0D254DDC09}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -45980,7 +46023,7 @@
       </c>
       <c r="O2" s="21" t="str" cm="1">
         <f t="array" aca="1" ref="O2" ca="1">INDEX(A2:A128,RANDBETWEEN(1,127))</f>
-        <v>Kochttopf</v>
+        <v>Räucherfleisch</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -46022,7 +46065,7 @@
       </c>
       <c r="O3" s="21" t="str" cm="1">
         <f t="array" aca="1" ref="O3" ca="1">INDEX(A3:A129,RANDBETWEEN(1,127))</f>
-        <v>Goldbarren</v>
+        <v>Holztisch Groß</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -46064,7 +46107,7 @@
       </c>
       <c r="O4" s="21" t="str" cm="1">
         <f t="array" aca="1" ref="O4" ca="1">INDEX(A4:A130,RANDBETWEEN(1,127))</f>
-        <v>Bärenfalle</v>
+        <v>Eisenhandschellen</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
@@ -46106,7 +46149,7 @@
       </c>
       <c r="O5" s="21" t="str" cm="1">
         <f t="array" aca="1" ref="O5" ca="1">INDEX(A5:A131,RANDBETWEEN(1,127))</f>
-        <v>Weißbrot</v>
+        <v>Inquistororden</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
@@ -46148,7 +46191,7 @@
       </c>
       <c r="O6" s="21" t="str" cm="1">
         <f t="array" aca="1" ref="O6" ca="1">INDEX(A6:A132,RANDBETWEEN(1,127))</f>
-        <v>Dudelsack</v>
+        <v>Zeichung eines Kleinkindes</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
@@ -46190,7 +46233,7 @@
       </c>
       <c r="O7" s="21" t="str" cm="1">
         <f t="array" aca="1" ref="O7" ca="1">INDEX(A7:A133,RANDBETWEEN(1,127))</f>
-        <v>Brief</v>
+        <v>Leinen</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
@@ -46232,7 +46275,7 @@
       </c>
       <c r="O8" s="21" t="str" cm="1">
         <f t="array" aca="1" ref="O8" ca="1">INDEX(A8:A134,RANDBETWEEN(1,127))</f>
-        <v>Warmes Metall</v>
+        <v>Holzkiste 50 cm</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
@@ -46274,7 +46317,7 @@
       </c>
       <c r="O9" s="21" t="str" cm="1">
         <f t="array" aca="1" ref="O9" ca="1">INDEX(A9:A135,RANDBETWEEN(1,127))</f>
-        <v>Spielzeugritter</v>
+        <v>Bohnen</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
@@ -46316,7 +46359,7 @@
       </c>
       <c r="O10" s="21" t="str" cm="1">
         <f t="array" aca="1" ref="O10" ca="1">INDEX(A10:A136,RANDBETWEEN(1,127))</f>
-        <v>Pamphlet</v>
+        <v>Bier</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
@@ -46400,7 +46443,7 @@
       </c>
       <c r="O12" s="21" t="str" cm="1">
         <f t="array" aca="1" ref="O12" ca="1">INDEX(A12:A138,RANDBETWEEN(1,127))</f>
-        <v>Holztisch Klein</v>
+        <v>Brennholz</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
@@ -46442,7 +46485,7 @@
       </c>
       <c r="O13" s="21" t="str" cm="1">
         <f t="array" aca="1" ref="O13" ca="1">INDEX(A13:A139,RANDBETWEEN(1,127))</f>
-        <v>Silbermesser</v>
+        <v>Warmes Metall</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
@@ -46484,7 +46527,7 @@
       </c>
       <c r="O14" s="21" t="str" cm="1">
         <f t="array" aca="1" ref="O14" ca="1">INDEX(A14:A140,RANDBETWEEN(1,127))</f>
-        <v>Leder</v>
+        <v>Heiltrank S3 M</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
@@ -46526,7 +46569,7 @@
       </c>
       <c r="O15" s="21" t="str" cm="1">
         <f t="array" aca="1" ref="O15" ca="1">INDEX(A15:A141,RANDBETWEEN(1,127))</f>
-        <v>Gifttrank S3 M</v>
+        <v>Kleines Stück Seide</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
@@ -46568,7 +46611,7 @@
       </c>
       <c r="O16" s="21" t="str" cm="1">
         <f t="array" aca="1" ref="O16" ca="1">INDEX(A16:A142,RANDBETWEEN(1,127))</f>
-        <v>Geschnitzte Figur</v>
+        <v>Schmiedehammer</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
@@ -46610,7 +46653,7 @@
       </c>
       <c r="O17" s="21" t="str" cm="1">
         <f t="array" aca="1" ref="O17" ca="1">INDEX(A17:A143,RANDBETWEEN(1,127))</f>
-        <v>Gewöhnliche Kleidung</v>
+        <v>Seil 6 Meter</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
@@ -46652,7 +46695,7 @@
       </c>
       <c r="O18" s="21" t="str" cm="1">
         <f t="array" aca="1" ref="O18" ca="1">INDEX(A18:A144,RANDBETWEEN(1,127))</f>
-        <v>Stainwurmsäure</v>
+        <v>Holzstab</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
@@ -46694,7 +46737,7 @@
       </c>
       <c r="O19" s="21" t="str" cm="1">
         <f t="array" aca="1" ref="O19" ca="1">INDEX(A19:A145,RANDBETWEEN(1,127))</f>
-        <v>Exquisite Kleidung</v>
+        <v>Schmiedehammer</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
@@ -46736,7 +46779,7 @@
       </c>
       <c r="O20" s="21" t="str" cm="1">
         <f t="array" aca="1" ref="O20" ca="1">INDEX(A20:A146,RANDBETWEEN(1,127))</f>
-        <v>Geschnitzte Figur</v>
+        <v>Schnaps</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
@@ -46778,7 +46821,7 @@
       </c>
       <c r="O21" s="21" t="str" cm="1">
         <f t="array" aca="1" ref="O21" ca="1">INDEX(A21:A147,RANDBETWEEN(1,127))</f>
-        <v>Buch</v>
+        <v>Mittlere Tranktasche</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
@@ -46820,7 +46863,7 @@
       </c>
       <c r="O22" s="21" t="str" cm="1">
         <f t="array" aca="1" ref="O22" ca="1">INDEX(A22:A148,RANDBETWEEN(1,127))</f>
-        <v>Gegengifttrank S3 M</v>
+        <v>Feuerstahl</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
@@ -46862,7 +46905,7 @@
       </c>
       <c r="O23" s="21" t="str" cm="1">
         <f t="array" aca="1" ref="O23" ca="1">INDEX(A23:A149,RANDBETWEEN(1,127))</f>
-        <v>Gifttrank S2 M</v>
+        <v>Warmes Metall</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
@@ -46904,7 +46947,7 @@
       </c>
       <c r="O24" s="21" t="str" cm="1">
         <f t="array" aca="1" ref="O24" ca="1">INDEX(A24:A150,RANDBETWEEN(1,127))</f>
-        <v>Gerantschrat</v>
+        <v>Geweihstücke</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
@@ -46946,7 +46989,7 @@
       </c>
       <c r="O25" s="21" t="str" cm="1">
         <f t="array" aca="1" ref="O25" ca="1">INDEX(A25:A151,RANDBETWEEN(1,127))</f>
-        <v>Holztisch Klein</v>
+        <v>Dudelsack</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -46988,7 +47031,7 @@
       </c>
       <c r="O26" s="21" t="str" cm="1">
         <f t="array" aca="1" ref="O26" ca="1">INDEX(A26:A152,RANDBETWEEN(1,127))</f>
-        <v>Exquisite Angel</v>
+        <v>Felldecke</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
@@ -47030,7 +47073,7 @@
       </c>
       <c r="O27" s="21" t="str" cm="1">
         <f t="array" aca="1" ref="O27" ca="1">INDEX(A27:A153,RANDBETWEEN(1,127))</f>
-        <v>kleine Metallschaufel</v>
+        <v>Kleiner Siegelstein</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
@@ -47072,7 +47115,7 @@
       </c>
       <c r="O28" s="21" t="str" cm="1">
         <f t="array" aca="1" ref="O28" ca="1">INDEX(A28:A154,RANDBETWEEN(1,127))</f>
-        <v>Adrenalinika S6 M</v>
+        <v>Stahlbarren gehärtet</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
@@ -47114,7 +47157,7 @@
       </c>
       <c r="O29" s="21" t="str" cm="1">
         <f t="array" aca="1" ref="O29" ca="1">INDEX(A29:A155,RANDBETWEEN(1,127))</f>
-        <v>Zweipersonen Zelt</v>
+        <v>Gegengifttrank S5 M</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
@@ -47156,7 +47199,7 @@
       </c>
       <c r="O30" s="21" t="str" cm="1">
         <f t="array" aca="1" ref="O30" ca="1">INDEX(A30:A156,RANDBETWEEN(1,127))</f>
-        <v>Seil 3 Meter</v>
+        <v>Gegengifttrank S3 M</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
@@ -47198,7 +47241,7 @@
       </c>
       <c r="O31" s="21" t="str" cm="1">
         <f t="array" aca="1" ref="O31" ca="1">INDEX(A31:A157,RANDBETWEEN(1,127))</f>
-        <v>Geweihstücke</v>
+        <v>Holzschwert</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
@@ -47240,7 +47283,7 @@
       </c>
       <c r="O32" s="21" t="str" cm="1">
         <f t="array" aca="1" ref="O32" ca="1">INDEX(A32:A158,RANDBETWEEN(1,127))</f>
-        <v>Papier</v>
+        <v>Molotovika S4 B</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
@@ -47282,7 +47325,7 @@
       </c>
       <c r="O33" s="21" t="str" cm="1">
         <f t="array" aca="1" ref="O33" ca="1">INDEX(A33:A159,RANDBETWEEN(1,127))</f>
-        <v>Kochlöffel</v>
+        <v>Zweipersonen Zelt</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
@@ -47324,7 +47367,7 @@
       </c>
       <c r="O34" s="21" t="str" cm="1">
         <f t="array" aca="1" ref="O34" ca="1">INDEX(A34:A160,RANDBETWEEN(1,127))</f>
-        <v>Nebelgrantika S2 B</v>
+        <v>Merkwürdiges Metall</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
@@ -47366,7 +47409,7 @@
       </c>
       <c r="O35" s="21" t="str" cm="1">
         <f t="array" aca="1" ref="O35" ca="1">INDEX(A35:A161,RANDBETWEEN(1,127))</f>
-        <v>Buch</v>
+        <v>Paralysetrank S6 M</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
@@ -47408,7 +47451,7 @@
       </c>
       <c r="O36" s="21" t="str" cm="1">
         <f t="array" aca="1" ref="O36" ca="1">INDEX(A36:A162,RANDBETWEEN(1,127))</f>
-        <v>Seil 6 Meter</v>
+        <v>Quarzkristall</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
@@ -47450,7 +47493,7 @@
       </c>
       <c r="O37" s="21" t="str" cm="1">
         <f t="array" aca="1" ref="O37" ca="1">INDEX(A37:A163,RANDBETWEEN(1,127))</f>
-        <v>Becher mit Würmern</v>
+        <v>Dudelsack</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
@@ -47492,7 +47535,7 @@
       </c>
       <c r="O38" s="21" t="str" cm="1">
         <f t="array" aca="1" ref="O38" ca="1">INDEX(A38:A164,RANDBETWEEN(1,127))</f>
-        <v>Heiltrank S3 M</v>
+        <v>Glasflasche</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
@@ -47534,7 +47577,7 @@
       </c>
       <c r="O39" s="21" t="str" cm="1">
         <f t="array" aca="1" ref="O39" ca="1">INDEX(A39:A165,RANDBETWEEN(1,127))</f>
-        <v>Silbermesser</v>
+        <v>Paralysetrank S3 M</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
@@ -47576,7 +47619,7 @@
       </c>
       <c r="O40" s="21" t="str" cm="1">
         <f t="array" aca="1" ref="O40" ca="1">INDEX(A40:A166,RANDBETWEEN(1,127))</f>
-        <v>Einpersonen Zelt</v>
+        <v>Schlafsack</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
@@ -47618,7 +47661,7 @@
       </c>
       <c r="O41" s="21" t="str" cm="1">
         <f t="array" aca="1" ref="O41" ca="1">INDEX(A41:A167,RANDBETWEEN(1,127))</f>
-        <v>Angel</v>
+        <v>Epinephrinika S2 M</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
@@ -47660,7 +47703,7 @@
       </c>
       <c r="O42" s="21" t="str" cm="1">
         <f t="array" aca="1" ref="O42" ca="1">INDEX(A42:A168,RANDBETWEEN(1,127))</f>
-        <v>Exquisite Kleidung</v>
+        <v>Ausdauertrank S1 M</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.3">
@@ -47702,7 +47745,7 @@
       </c>
       <c r="O43" s="21" t="str" cm="1">
         <f t="array" aca="1" ref="O43" ca="1">INDEX(A43:A169,RANDBETWEEN(1,127))</f>
-        <v>Becher mit Würmern</v>
+        <v>Angel</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
@@ -47744,7 +47787,7 @@
       </c>
       <c r="O44" s="21" t="str" cm="1">
         <f t="array" aca="1" ref="O44" ca="1">INDEX(A44:A170,RANDBETWEEN(1,127))</f>
-        <v>Glasflasche</v>
+        <v>Silbergabel</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
@@ -47786,7 +47829,7 @@
       </c>
       <c r="O45" s="21" t="str" cm="1">
         <f t="array" aca="1" ref="O45" ca="1">INDEX(A45:A171,RANDBETWEEN(1,127))</f>
-        <v>Fell</v>
+        <v>Molotovika S3 B</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.3">
@@ -47828,7 +47871,7 @@
       </c>
       <c r="O46" s="21" t="str" cm="1">
         <f t="array" aca="1" ref="O46" ca="1">INDEX(A46:A172,RANDBETWEEN(1,127))</f>
-        <v>Enterhaken</v>
+        <v>Rehledermütze</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
@@ -47870,7 +47913,7 @@
       </c>
       <c r="O47" s="21" t="str" cm="1">
         <f t="array" aca="1" ref="O47" ca="1">INDEX(A47:A173,RANDBETWEEN(1,127))</f>
-        <v>Euphorika S6 M</v>
+        <v>Pamphlet</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.3">
@@ -47912,7 +47955,7 @@
       </c>
       <c r="O48" s="21" t="str" cm="1">
         <f t="array" aca="1" ref="O48" ca="1">INDEX(A48:A174,RANDBETWEEN(1,127))</f>
-        <v>Leder</v>
+        <v>Zweipersonen Zelt</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.3">
@@ -47954,7 +47997,7 @@
       </c>
       <c r="O49" s="21" t="str" cm="1">
         <f t="array" aca="1" ref="O49" ca="1">INDEX(A49:A175,RANDBETWEEN(1,127))</f>
-        <v>Adrenalinika S5 M</v>
+        <v>Warmes Metall</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.3">
@@ -47996,7 +48039,7 @@
       </c>
       <c r="O50" s="21" t="str" cm="1">
         <f t="array" aca="1" ref="O50" ca="1">INDEX(A50:A176,RANDBETWEEN(1,127))</f>
-        <v>Krähenfüße</v>
+        <v>Euphorika S5 M</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.3">
@@ -48038,7 +48081,7 @@
       </c>
       <c r="O51" s="21" t="str" cm="1">
         <f t="array" aca="1" ref="O51" ca="1">INDEX(A51:A177,RANDBETWEEN(1,127))</f>
-        <v>Bombenflasche</v>
+        <v>Parfüm</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.3">
@@ -48080,7 +48123,7 @@
       </c>
       <c r="O52" s="21" t="str" cm="1">
         <f t="array" aca="1" ref="O52" ca="1">INDEX(A52:A178,RANDBETWEEN(1,127))</f>
-        <v>Leder</v>
+        <v>Elfenknochen</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.3">
@@ -48122,7 +48165,7 @@
       </c>
       <c r="O53" s="21" t="str" cm="1">
         <f t="array" aca="1" ref="O53" ca="1">INDEX(A53:A179,RANDBETWEEN(1,127))</f>
-        <v>Gerantschrat</v>
+        <v>Goldkette</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.3">
@@ -48164,7 +48207,7 @@
       </c>
       <c r="O54" s="21" t="str" cm="1">
         <f t="array" aca="1" ref="O54" ca="1">INDEX(A54:A180,RANDBETWEEN(1,127))</f>
-        <v>Schweinekopf</v>
+        <v>kleine Metallschaufel</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.3">
@@ -48206,7 +48249,7 @@
       </c>
       <c r="O55" s="21" t="str" cm="1">
         <f t="array" aca="1" ref="O55" ca="1">INDEX(A55:A181,RANDBETWEEN(1,127))</f>
-        <v>Gegengifttrank S5 M</v>
+        <v>Geschnitzte Figur</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.3">
@@ -48248,7 +48291,7 @@
       </c>
       <c r="O56" s="21" t="str" cm="1">
         <f t="array" aca="1" ref="O56" ca="1">INDEX(A56:A182,RANDBETWEEN(1,127))</f>
-        <v>Gifttrank S4 M</v>
+        <v>Stahlbarren</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.3">
@@ -48290,7 +48333,7 @@
       </c>
       <c r="O57" s="21" t="str" cm="1">
         <f t="array" aca="1" ref="O57" ca="1">INDEX(A57:A183,RANDBETWEEN(1,127))</f>
-        <v>Leder</v>
+        <v>Narkotika S4 M</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.3">
@@ -48332,7 +48375,7 @@
       </c>
       <c r="O58" s="21" t="str" cm="1">
         <f t="array" aca="1" ref="O58" ca="1">INDEX(A58:A184,RANDBETWEEN(1,127))</f>
-        <v>Nebelgrantika S5 B</v>
+        <v>Euphorika S5 M</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.3">
@@ -48374,7 +48417,7 @@
       </c>
       <c r="O59" s="21" t="str" cm="1">
         <f t="array" aca="1" ref="O59" ca="1">INDEX(A59:A185,RANDBETWEEN(1,127))</f>
-        <v>Euphorika S1 M</v>
+        <v>Narkotika S6 M</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.3">

--- a/OrbisGame/Container/Data/MiscItemListe.xlsx
+++ b/OrbisGame/Container/Data/MiscItemListe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Dropbox\OrbisAstea\Rpg\Container\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D40C64D0-D488-4D16-A324-D481C4377B37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22607828-6CF2-4931-B548-A73706E5A018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8158" uniqueCount="1774">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8284" uniqueCount="1810">
   <si>
     <t>Tränke</t>
   </si>
@@ -5400,6 +5400,114 @@
   </si>
   <si>
     <t xml:space="preserve">Aufwachen mit negativ Effekten </t>
+  </si>
+  <si>
+    <t>Liedtext Minnesang T1</t>
+  </si>
+  <si>
+    <t>Lieder</t>
+  </si>
+  <si>
+    <t>Liedtext Minnesang T2</t>
+  </si>
+  <si>
+    <t>Liedtext Minnesang T3</t>
+  </si>
+  <si>
+    <t>Liedtext Minnesang T4</t>
+  </si>
+  <si>
+    <t>Liedtext Rock T1</t>
+  </si>
+  <si>
+    <t>Liedtext Rock T2</t>
+  </si>
+  <si>
+    <t>Liedtext Rock T3</t>
+  </si>
+  <si>
+    <t>Liedtext Rock T4</t>
+  </si>
+  <si>
+    <t>Liedtext Folk T1</t>
+  </si>
+  <si>
+    <t>Liedtext Folk T2</t>
+  </si>
+  <si>
+    <t>Liedtext Folk T3</t>
+  </si>
+  <si>
+    <t>Liedtext Folk T4</t>
+  </si>
+  <si>
+    <t>Liedtext Tavernenmusik T1</t>
+  </si>
+  <si>
+    <t>Liedtext Tavernenmusik T2</t>
+  </si>
+  <si>
+    <t>Liedtext Tavernenmusik T3</t>
+  </si>
+  <si>
+    <t>Liedtext Tavernenmusik T4</t>
+  </si>
+  <si>
+    <t>Liedtext Metal T1</t>
+  </si>
+  <si>
+    <t>Liedtext Metal T2</t>
+  </si>
+  <si>
+    <t>Liedtext Metal T3</t>
+  </si>
+  <si>
+    <t>Liedtext Metal T4</t>
+  </si>
+  <si>
+    <t>Liedtext Polka T1</t>
+  </si>
+  <si>
+    <t>Liedtext Polka T2</t>
+  </si>
+  <si>
+    <t>Liedtext Polka T3</t>
+  </si>
+  <si>
+    <t>Liedtext Polka T4</t>
+  </si>
+  <si>
+    <t>Liedtext Hymne T1</t>
+  </si>
+  <si>
+    <t>Liedtext Hymne T2</t>
+  </si>
+  <si>
+    <t>Liedtext Hymne T3</t>
+  </si>
+  <si>
+    <t>Liedtext Hymne T4</t>
+  </si>
+  <si>
+    <t>Hauptinstrument Geige; Begleitinstrument Laute</t>
+  </si>
+  <si>
+    <t>Hauptinstrument Trommel; Begleitinstrument Dudelsack</t>
+  </si>
+  <si>
+    <t>Hauptinstrument Flöte; Begleitinstrument Trommel</t>
+  </si>
+  <si>
+    <t>Hauptinstrument Laute; Begleitinstrument Geige</t>
+  </si>
+  <si>
+    <t>Hauptinstrument Dudelsack; Begleitinstrument Trompete</t>
+  </si>
+  <si>
+    <t>Hauptinstrument Horn; Begleitinstrument Flöte</t>
+  </si>
+  <si>
+    <t>Hauptinstrument Trompete; Begleitinstrument Horn</t>
   </si>
 </sst>
 </file>
@@ -5627,8 +5735,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2C16F24A-7CF5-4AAB-A73A-FC93949A72A9}" name="Tabelle1" displayName="Tabelle1" ref="A1:N793" totalsRowShown="0">
-  <autoFilter ref="A1:N793" xr:uid="{2C16F24A-7CF5-4AAB-A73A-FC93949A72A9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2C16F24A-7CF5-4AAB-A73A-FC93949A72A9}" name="Tabelle1" displayName="Tabelle1" ref="A1:N821" totalsRowShown="0">
+  <autoFilter ref="A1:N821" xr:uid="{2C16F24A-7CF5-4AAB-A73A-FC93949A72A9}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N793">
     <sortCondition ref="D1:D793"/>
   </sortState>
@@ -5918,11 +6026,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{017005DF-956F-49EF-89FF-B49E3106C927}">
   <sheetPr codeName="Tabelle1"/>
-  <dimension ref="A1:N793"/>
+  <dimension ref="A1:N821"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A505" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="A796" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F794" sqref="F794:F821"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -27382,7 +27490,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="785" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A785" s="18" t="s">
         <v>1215</v>
       </c>
@@ -27409,7 +27517,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="786" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A786" s="18" t="s">
         <v>1217</v>
       </c>
@@ -27436,7 +27544,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="787" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A787" s="18" t="s">
         <v>1219</v>
       </c>
@@ -27463,7 +27571,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="788" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A788" s="18" t="s">
         <v>1221</v>
       </c>
@@ -27490,7 +27598,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="789" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A789" s="18" t="s">
         <v>1223</v>
       </c>
@@ -27517,7 +27625,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="790" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A790" s="18" t="s">
         <v>1225</v>
       </c>
@@ -27544,7 +27652,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="791" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A791" s="18" t="s">
         <v>1239</v>
       </c>
@@ -27571,7 +27679,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="792" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A792" s="18" t="s">
         <v>1241</v>
       </c>
@@ -27598,7 +27706,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="793" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A793" s="18" t="s">
         <v>1243</v>
       </c>
@@ -27623,6 +27731,804 @@
       </c>
       <c r="K793" t="s">
         <v>1045</v>
+      </c>
+    </row>
+    <row r="794" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A794" s="30" t="s">
+        <v>1774</v>
+      </c>
+      <c r="B794" s="31">
+        <v>1000</v>
+      </c>
+      <c r="C794" s="13">
+        <v>0</v>
+      </c>
+      <c r="D794" s="13" t="s">
+        <v>1775</v>
+      </c>
+      <c r="E794" t="str">
+        <f t="shared" ref="E794:E821" si="13">H794&amp;", "&amp;I794&amp;", "&amp;J794&amp;", "&amp;K794&amp;", "&amp;L794&amp;", "&amp;M794&amp;", "&amp;N794</f>
+        <v xml:space="preserve">, Allgemein, , , Wirt, , </v>
+      </c>
+      <c r="F794" t="s">
+        <v>1803</v>
+      </c>
+      <c r="G794">
+        <v>1</v>
+      </c>
+      <c r="I794" t="s">
+        <v>1043</v>
+      </c>
+      <c r="L794" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="795" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A795" s="30" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B795" s="31">
+        <v>2000</v>
+      </c>
+      <c r="C795" s="13">
+        <v>0</v>
+      </c>
+      <c r="D795" s="13" t="s">
+        <v>1775</v>
+      </c>
+      <c r="E795" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">, Allgemein, , , Wirt, , </v>
+      </c>
+      <c r="F795" t="s">
+        <v>1803</v>
+      </c>
+      <c r="G795">
+        <v>1</v>
+      </c>
+      <c r="I795" t="s">
+        <v>1043</v>
+      </c>
+      <c r="L795" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="796" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A796" s="30" t="s">
+        <v>1777</v>
+      </c>
+      <c r="B796" s="31">
+        <v>3000</v>
+      </c>
+      <c r="C796" s="13">
+        <v>0</v>
+      </c>
+      <c r="D796" s="13" t="s">
+        <v>1775</v>
+      </c>
+      <c r="E796" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">, , , , Wirt, , </v>
+      </c>
+      <c r="F796" t="s">
+        <v>1803</v>
+      </c>
+      <c r="G796">
+        <v>1</v>
+      </c>
+      <c r="L796" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="797" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A797" s="30" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B797" s="31">
+        <v>4500</v>
+      </c>
+      <c r="C797" s="13">
+        <v>0</v>
+      </c>
+      <c r="D797" s="13" t="s">
+        <v>1775</v>
+      </c>
+      <c r="E797" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">, , , , Wirt, , </v>
+      </c>
+      <c r="F797" t="s">
+        <v>1803</v>
+      </c>
+      <c r="G797">
+        <v>0.5</v>
+      </c>
+      <c r="L797" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="798" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A798" s="30" t="s">
+        <v>1779</v>
+      </c>
+      <c r="B798" s="31">
+        <v>1000</v>
+      </c>
+      <c r="C798" s="13">
+        <v>0</v>
+      </c>
+      <c r="D798" s="13" t="s">
+        <v>1775</v>
+      </c>
+      <c r="E798" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">, Allgemein, , , Wirt, , </v>
+      </c>
+      <c r="F798" t="s">
+        <v>1804</v>
+      </c>
+      <c r="G798">
+        <v>1</v>
+      </c>
+      <c r="I798" t="s">
+        <v>1043</v>
+      </c>
+      <c r="L798" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="799" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A799" s="30" t="s">
+        <v>1780</v>
+      </c>
+      <c r="B799" s="31">
+        <v>2000</v>
+      </c>
+      <c r="C799" s="13">
+        <v>0</v>
+      </c>
+      <c r="D799" s="13" t="s">
+        <v>1775</v>
+      </c>
+      <c r="E799" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">, Allgemein, , , Wirt, , </v>
+      </c>
+      <c r="F799" t="s">
+        <v>1804</v>
+      </c>
+      <c r="G799">
+        <v>1</v>
+      </c>
+      <c r="I799" t="s">
+        <v>1043</v>
+      </c>
+      <c r="L799" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="800" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A800" s="30" t="s">
+        <v>1781</v>
+      </c>
+      <c r="B800" s="31">
+        <v>3000</v>
+      </c>
+      <c r="C800" s="13">
+        <v>0</v>
+      </c>
+      <c r="D800" s="13" t="s">
+        <v>1775</v>
+      </c>
+      <c r="E800" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">, , , , Wirt, , </v>
+      </c>
+      <c r="F800" t="s">
+        <v>1804</v>
+      </c>
+      <c r="G800">
+        <v>1</v>
+      </c>
+      <c r="L800" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="801" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A801" s="30" t="s">
+        <v>1782</v>
+      </c>
+      <c r="B801" s="31">
+        <v>4500</v>
+      </c>
+      <c r="C801" s="13">
+        <v>0</v>
+      </c>
+      <c r="D801" s="13" t="s">
+        <v>1775</v>
+      </c>
+      <c r="E801" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">, , , , Wirt, , </v>
+      </c>
+      <c r="F801" t="s">
+        <v>1804</v>
+      </c>
+      <c r="G801">
+        <v>0.5</v>
+      </c>
+      <c r="L801" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="802" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A802" s="30" t="s">
+        <v>1783</v>
+      </c>
+      <c r="B802" s="31">
+        <v>1000</v>
+      </c>
+      <c r="C802" s="13">
+        <v>0</v>
+      </c>
+      <c r="D802" s="13" t="s">
+        <v>1775</v>
+      </c>
+      <c r="E802" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">, Allgemein, , , Wirt, , </v>
+      </c>
+      <c r="F802" t="s">
+        <v>1805</v>
+      </c>
+      <c r="G802">
+        <v>1</v>
+      </c>
+      <c r="I802" t="s">
+        <v>1043</v>
+      </c>
+      <c r="L802" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="803" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A803" s="30" t="s">
+        <v>1784</v>
+      </c>
+      <c r="B803" s="31">
+        <v>2000</v>
+      </c>
+      <c r="C803" s="13">
+        <v>0</v>
+      </c>
+      <c r="D803" s="13" t="s">
+        <v>1775</v>
+      </c>
+      <c r="E803" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">, Allgemein, , , Wirt, , </v>
+      </c>
+      <c r="F803" t="s">
+        <v>1805</v>
+      </c>
+      <c r="G803">
+        <v>1</v>
+      </c>
+      <c r="I803" t="s">
+        <v>1043</v>
+      </c>
+      <c r="L803" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="804" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A804" s="30" t="s">
+        <v>1785</v>
+      </c>
+      <c r="B804" s="31">
+        <v>3000</v>
+      </c>
+      <c r="C804" s="13">
+        <v>0</v>
+      </c>
+      <c r="D804" s="13" t="s">
+        <v>1775</v>
+      </c>
+      <c r="E804" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">, , , , Wirt, , </v>
+      </c>
+      <c r="F804" t="s">
+        <v>1805</v>
+      </c>
+      <c r="G804">
+        <v>1</v>
+      </c>
+      <c r="L804" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="805" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A805" s="30" t="s">
+        <v>1786</v>
+      </c>
+      <c r="B805" s="31">
+        <v>4500</v>
+      </c>
+      <c r="C805" s="13">
+        <v>0</v>
+      </c>
+      <c r="D805" s="13" t="s">
+        <v>1775</v>
+      </c>
+      <c r="E805" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">, , , , Wirt, , </v>
+      </c>
+      <c r="F805" t="s">
+        <v>1805</v>
+      </c>
+      <c r="G805">
+        <v>0.5</v>
+      </c>
+      <c r="L805" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="806" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A806" s="30" t="s">
+        <v>1787</v>
+      </c>
+      <c r="B806" s="31">
+        <v>1000</v>
+      </c>
+      <c r="C806" s="13">
+        <v>0</v>
+      </c>
+      <c r="D806" s="13" t="s">
+        <v>1775</v>
+      </c>
+      <c r="E806" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">, Allgemein, , , Wirt, , </v>
+      </c>
+      <c r="F806" t="s">
+        <v>1806</v>
+      </c>
+      <c r="G806">
+        <v>1</v>
+      </c>
+      <c r="I806" t="s">
+        <v>1043</v>
+      </c>
+      <c r="L806" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="807" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A807" s="30" t="s">
+        <v>1788</v>
+      </c>
+      <c r="B807" s="31">
+        <v>2000</v>
+      </c>
+      <c r="C807" s="13">
+        <v>0</v>
+      </c>
+      <c r="D807" s="13" t="s">
+        <v>1775</v>
+      </c>
+      <c r="E807" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">, Allgemein, , , Wirt, , </v>
+      </c>
+      <c r="F807" t="s">
+        <v>1806</v>
+      </c>
+      <c r="G807">
+        <v>1</v>
+      </c>
+      <c r="I807" t="s">
+        <v>1043</v>
+      </c>
+      <c r="L807" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="808" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A808" s="30" t="s">
+        <v>1789</v>
+      </c>
+      <c r="B808" s="31">
+        <v>3000</v>
+      </c>
+      <c r="C808" s="13">
+        <v>0</v>
+      </c>
+      <c r="D808" s="13" t="s">
+        <v>1775</v>
+      </c>
+      <c r="E808" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">, , , , Wirt, , </v>
+      </c>
+      <c r="F808" t="s">
+        <v>1806</v>
+      </c>
+      <c r="G808">
+        <v>1</v>
+      </c>
+      <c r="L808" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="809" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A809" s="30" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B809" s="31">
+        <v>4500</v>
+      </c>
+      <c r="C809" s="13">
+        <v>0</v>
+      </c>
+      <c r="D809" s="13" t="s">
+        <v>1775</v>
+      </c>
+      <c r="E809" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">, , , , Wirt, , </v>
+      </c>
+      <c r="F809" t="s">
+        <v>1806</v>
+      </c>
+      <c r="G809">
+        <v>0.5</v>
+      </c>
+      <c r="L809" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="810" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A810" s="30" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B810" s="31">
+        <v>1000</v>
+      </c>
+      <c r="C810" s="13">
+        <v>0</v>
+      </c>
+      <c r="D810" s="13" t="s">
+        <v>1775</v>
+      </c>
+      <c r="E810" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">, Allgemein, , , Wirt, , </v>
+      </c>
+      <c r="F810" t="s">
+        <v>1807</v>
+      </c>
+      <c r="G810">
+        <v>1</v>
+      </c>
+      <c r="I810" t="s">
+        <v>1043</v>
+      </c>
+      <c r="L810" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="811" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A811" s="30" t="s">
+        <v>1792</v>
+      </c>
+      <c r="B811" s="31">
+        <v>2000</v>
+      </c>
+      <c r="C811" s="13">
+        <v>0</v>
+      </c>
+      <c r="D811" s="13" t="s">
+        <v>1775</v>
+      </c>
+      <c r="E811" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">, Allgemein, , , Wirt, , </v>
+      </c>
+      <c r="F811" t="s">
+        <v>1807</v>
+      </c>
+      <c r="G811">
+        <v>1</v>
+      </c>
+      <c r="I811" t="s">
+        <v>1043</v>
+      </c>
+      <c r="L811" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="812" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A812" s="30" t="s">
+        <v>1793</v>
+      </c>
+      <c r="B812" s="31">
+        <v>3000</v>
+      </c>
+      <c r="C812" s="13">
+        <v>0</v>
+      </c>
+      <c r="D812" s="13" t="s">
+        <v>1775</v>
+      </c>
+      <c r="E812" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">, , , , Wirt, , </v>
+      </c>
+      <c r="F812" t="s">
+        <v>1807</v>
+      </c>
+      <c r="G812">
+        <v>1</v>
+      </c>
+      <c r="L812" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="813" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A813" s="30" t="s">
+        <v>1794</v>
+      </c>
+      <c r="B813" s="31">
+        <v>4500</v>
+      </c>
+      <c r="C813" s="13">
+        <v>0</v>
+      </c>
+      <c r="D813" s="13" t="s">
+        <v>1775</v>
+      </c>
+      <c r="E813" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">, , , , Wirt, , </v>
+      </c>
+      <c r="F813" t="s">
+        <v>1807</v>
+      </c>
+      <c r="G813">
+        <v>0.5</v>
+      </c>
+      <c r="L813" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="814" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A814" s="30" t="s">
+        <v>1795</v>
+      </c>
+      <c r="B814" s="31">
+        <v>1000</v>
+      </c>
+      <c r="C814" s="13">
+        <v>0</v>
+      </c>
+      <c r="D814" s="13" t="s">
+        <v>1775</v>
+      </c>
+      <c r="E814" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">, Allgemein, , , Wirt, , </v>
+      </c>
+      <c r="F814" t="s">
+        <v>1808</v>
+      </c>
+      <c r="G814">
+        <v>1</v>
+      </c>
+      <c r="I814" t="s">
+        <v>1043</v>
+      </c>
+      <c r="L814" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="815" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A815" s="30" t="s">
+        <v>1796</v>
+      </c>
+      <c r="B815" s="31">
+        <v>2000</v>
+      </c>
+      <c r="C815" s="13">
+        <v>0</v>
+      </c>
+      <c r="D815" s="13" t="s">
+        <v>1775</v>
+      </c>
+      <c r="E815" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">, Allgemein, , , Wirt, , </v>
+      </c>
+      <c r="F815" t="s">
+        <v>1808</v>
+      </c>
+      <c r="G815">
+        <v>1</v>
+      </c>
+      <c r="I815" t="s">
+        <v>1043</v>
+      </c>
+      <c r="L815" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="816" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A816" s="30" t="s">
+        <v>1797</v>
+      </c>
+      <c r="B816" s="31">
+        <v>3000</v>
+      </c>
+      <c r="C816" s="13">
+        <v>0</v>
+      </c>
+      <c r="D816" s="13" t="s">
+        <v>1775</v>
+      </c>
+      <c r="E816" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">, , , , Wirt, , </v>
+      </c>
+      <c r="F816" t="s">
+        <v>1808</v>
+      </c>
+      <c r="G816">
+        <v>1</v>
+      </c>
+      <c r="L816" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="817" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A817" s="30" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B817" s="31">
+        <v>4500</v>
+      </c>
+      <c r="C817" s="13">
+        <v>0</v>
+      </c>
+      <c r="D817" s="13" t="s">
+        <v>1775</v>
+      </c>
+      <c r="E817" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">, , , , Wirt, , </v>
+      </c>
+      <c r="F817" t="s">
+        <v>1808</v>
+      </c>
+      <c r="G817">
+        <v>0.5</v>
+      </c>
+      <c r="L817" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="818" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A818" s="30" t="s">
+        <v>1799</v>
+      </c>
+      <c r="B818" s="31">
+        <v>1000</v>
+      </c>
+      <c r="C818" s="13">
+        <v>0</v>
+      </c>
+      <c r="D818" s="13" t="s">
+        <v>1775</v>
+      </c>
+      <c r="E818" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">, Allgemein, , , Wirt, , </v>
+      </c>
+      <c r="F818" t="s">
+        <v>1809</v>
+      </c>
+      <c r="G818">
+        <v>1</v>
+      </c>
+      <c r="I818" t="s">
+        <v>1043</v>
+      </c>
+      <c r="L818" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="819" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A819" s="30" t="s">
+        <v>1800</v>
+      </c>
+      <c r="B819" s="31">
+        <v>2000</v>
+      </c>
+      <c r="C819" s="13">
+        <v>0</v>
+      </c>
+      <c r="D819" s="13" t="s">
+        <v>1775</v>
+      </c>
+      <c r="E819" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">, Allgemein, , , Wirt, , </v>
+      </c>
+      <c r="F819" t="s">
+        <v>1809</v>
+      </c>
+      <c r="G819">
+        <v>1</v>
+      </c>
+      <c r="I819" t="s">
+        <v>1043</v>
+      </c>
+      <c r="L819" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="820" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A820" s="30" t="s">
+        <v>1801</v>
+      </c>
+      <c r="B820" s="31">
+        <v>3000</v>
+      </c>
+      <c r="C820" s="13">
+        <v>0</v>
+      </c>
+      <c r="D820" s="13" t="s">
+        <v>1775</v>
+      </c>
+      <c r="E820" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">, , , , Wirt, , </v>
+      </c>
+      <c r="F820" t="s">
+        <v>1809</v>
+      </c>
+      <c r="G820">
+        <v>1</v>
+      </c>
+      <c r="L820" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="821" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A821" s="30" t="s">
+        <v>1802</v>
+      </c>
+      <c r="B821" s="31">
+        <v>4500</v>
+      </c>
+      <c r="C821" s="13">
+        <v>0</v>
+      </c>
+      <c r="D821" s="13" t="s">
+        <v>1775</v>
+      </c>
+      <c r="E821" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">, , , , Wirt, , </v>
+      </c>
+      <c r="F821" t="s">
+        <v>1809</v>
+      </c>
+      <c r="G821">
+        <v>0.5</v>
+      </c>
+      <c r="L821" t="s">
+        <v>1058</v>
       </c>
     </row>
   </sheetData>
@@ -27736,7 +28642,7 @@
       </c>
       <c r="O2" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O2" ca="1">INDEX(A2:A128,RANDBETWEEN(1,127))</f>
-        <v>Schlafsack</v>
+        <v>Spielzeugritter</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -27778,7 +28684,7 @@
       </c>
       <c r="O3" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O3" ca="1">INDEX(A3:A129,RANDBETWEEN(1,127))</f>
-        <v>Laterne</v>
+        <v>Stofftier</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -27820,7 +28726,7 @@
       </c>
       <c r="O4" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O4" ca="1">INDEX(A4:A130,RANDBETWEEN(1,127))</f>
-        <v>Gute Wurst</v>
+        <v>Fellstiefel</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
@@ -27862,7 +28768,7 @@
       </c>
       <c r="O5" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O5" ca="1">INDEX(A5:A131,RANDBETWEEN(1,127))</f>
-        <v>Rubin</v>
+        <v>Holzkiste 100 cm</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
@@ -27904,7 +28810,7 @@
       </c>
       <c r="O6" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O6" ca="1">INDEX(A6:A132,RANDBETWEEN(1,127))</f>
-        <v>Leder</v>
+        <v>Bronzebarren</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
@@ -27946,7 +28852,7 @@
       </c>
       <c r="O7" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O7" ca="1">INDEX(A7:A133,RANDBETWEEN(1,127))</f>
-        <v>Spielzeugritter</v>
+        <v>Bärenfalle</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
@@ -27988,7 +28894,7 @@
       </c>
       <c r="O8" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O8" ca="1">INDEX(A8:A134,RANDBETWEEN(1,127))</f>
-        <v>Gerantschrat</v>
+        <v>Trockenfleisch</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
@@ -28030,7 +28936,7 @@
       </c>
       <c r="O9" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O9" ca="1">INDEX(A9:A135,RANDBETWEEN(1,127))</f>
-        <v>Brennholz</v>
+        <v>Merkwürdiges Metall</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
@@ -28072,7 +28978,7 @@
       </c>
       <c r="O10" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O10" ca="1">INDEX(A10:A136,RANDBETWEEN(1,127))</f>
-        <v>Exquisite Kleidung</v>
+        <v>Becher mit Würmern</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
@@ -28114,7 +29020,7 @@
       </c>
       <c r="O11" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O11" ca="1">INDEX(A11:A137,RANDBETWEEN(1,127))</f>
-        <v>Metallflasche</v>
+        <v>Trockenfleisch</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
@@ -28156,7 +29062,7 @@
       </c>
       <c r="O12" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O12" ca="1">INDEX(A12:A138,RANDBETWEEN(1,127))</f>
-        <v>Holzstab</v>
+        <v>Metallflasche</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
@@ -28198,7 +29104,7 @@
       </c>
       <c r="O13" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O13" ca="1">INDEX(A13:A139,RANDBETWEEN(1,127))</f>
-        <v>Heiltrank S2 M</v>
+        <v>Karottenbündel</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
@@ -28240,7 +29146,7 @@
       </c>
       <c r="O14" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O14" ca="1">INDEX(A14:A140,RANDBETWEEN(1,127))</f>
-        <v>Laterne</v>
+        <v>Schweinekopf</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
@@ -28282,7 +29188,7 @@
       </c>
       <c r="O15" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O15" ca="1">INDEX(A15:A141,RANDBETWEEN(1,127))</f>
-        <v>Rahkari Schnaps</v>
+        <v>Paralysetrank S3 M</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
@@ -28324,7 +29230,7 @@
       </c>
       <c r="O16" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O16" ca="1">INDEX(A16:A142,RANDBETWEEN(1,127))</f>
-        <v>Exquisite Kleidung</v>
+        <v>Feuerpilz</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
@@ -28366,7 +29272,7 @@
       </c>
       <c r="O17" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O17" ca="1">INDEX(A17:A143,RANDBETWEEN(1,127))</f>
-        <v>Schmiedehammer</v>
+        <v>Blumenstrauß</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
@@ -28408,7 +29314,7 @@
       </c>
       <c r="O18" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O18" ca="1">INDEX(A18:A144,RANDBETWEEN(1,127))</f>
-        <v>Kleiner Lederbeutel</v>
+        <v>Bohneneintopf</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
@@ -28450,7 +29356,7 @@
       </c>
       <c r="O19" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O19" ca="1">INDEX(A19:A145,RANDBETWEEN(1,127))</f>
-        <v>Rose</v>
+        <v>Gehstock</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
@@ -28492,7 +29398,7 @@
       </c>
       <c r="O20" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O20" ca="1">INDEX(A20:A146,RANDBETWEEN(1,127))</f>
-        <v>Traubensaft</v>
+        <v>Elfenknochen</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
@@ -28534,7 +29440,7 @@
       </c>
       <c r="O21" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O21" ca="1">INDEX(A21:A147,RANDBETWEEN(1,127))</f>
-        <v>Lindwurmaut</v>
+        <v>Krähenfüße</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
@@ -28576,7 +29482,7 @@
       </c>
       <c r="O22" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O22" ca="1">INDEX(A22:A148,RANDBETWEEN(1,127))</f>
-        <v>Papier</v>
+        <v>Schweinekopf</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
@@ -28618,7 +29524,7 @@
       </c>
       <c r="O23" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O23" ca="1">INDEX(A23:A149,RANDBETWEEN(1,127))</f>
-        <v>Felldecke</v>
+        <v>Rubin</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
@@ -28660,7 +29566,7 @@
       </c>
       <c r="O24" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O24" ca="1">INDEX(A24:A150,RANDBETWEEN(1,127))</f>
-        <v>Gewöhnliche Kleidung</v>
+        <v>Schweinekopf</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
@@ -28702,7 +29608,7 @@
       </c>
       <c r="O25" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O25" ca="1">INDEX(A25:A151,RANDBETWEEN(1,127))</f>
-        <v>Paralysetrank S4 M</v>
+        <v>Laute</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -28744,7 +29650,7 @@
       </c>
       <c r="O26" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O26" ca="1">INDEX(A26:A152,RANDBETWEEN(1,127))</f>
-        <v>Felldecke</v>
+        <v>Feuerpilz</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
@@ -28786,7 +29692,7 @@
       </c>
       <c r="O27" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O27" ca="1">INDEX(A27:A153,RANDBETWEEN(1,127))</f>
-        <v>Bärenfalle</v>
+        <v>Kaisotherz</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
@@ -28828,7 +29734,7 @@
       </c>
       <c r="O28" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O28" ca="1">INDEX(A28:A154,RANDBETWEEN(1,127))</f>
-        <v>Silbermesser</v>
+        <v>Rubin</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
@@ -28870,7 +29776,7 @@
       </c>
       <c r="O29" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O29" ca="1">INDEX(A29:A155,RANDBETWEEN(1,127))</f>
-        <v>Stofftier</v>
+        <v>Brennholz</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
@@ -28912,7 +29818,7 @@
       </c>
       <c r="O30" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O30" ca="1">INDEX(A30:A156,RANDBETWEEN(1,127))</f>
-        <v>Kleiner Siegelstein</v>
+        <v>Adrenalinika S3 M</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
@@ -28954,7 +29860,7 @@
       </c>
       <c r="O31" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O31" ca="1">INDEX(A31:A157,RANDBETWEEN(1,127))</f>
-        <v>Holzkiste 50 cm</v>
+        <v>Heiltrank S4 M</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
@@ -28996,7 +29902,7 @@
       </c>
       <c r="O32" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O32" ca="1">INDEX(A32:A158,RANDBETWEEN(1,127))</f>
-        <v>Glasflasche</v>
+        <v>kleine Metallschaufel</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
@@ -29038,7 +29944,7 @@
       </c>
       <c r="O33" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O33" ca="1">INDEX(A33:A159,RANDBETWEEN(1,127))</f>
-        <v>Eisenhandschellen</v>
+        <v>Große Tranktasche</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
@@ -29080,7 +29986,7 @@
       </c>
       <c r="O34" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O34" ca="1">INDEX(A34:A160,RANDBETWEEN(1,127))</f>
-        <v>Metallflasche</v>
+        <v>Buch</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
@@ -29122,7 +30028,7 @@
       </c>
       <c r="O35" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O35" ca="1">INDEX(A35:A161,RANDBETWEEN(1,127))</f>
-        <v>Feuerpilz</v>
+        <v>Strickleiter</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
@@ -29164,7 +30070,7 @@
       </c>
       <c r="O36" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O36" ca="1">INDEX(A36:A162,RANDBETWEEN(1,127))</f>
-        <v>Heiltrank S1 M</v>
+        <v>Gegengifttrank S5 M</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
@@ -29206,7 +30112,7 @@
       </c>
       <c r="O37" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O37" ca="1">INDEX(A37:A163,RANDBETWEEN(1,127))</f>
-        <v>Merkwürdiges Metall</v>
+        <v>Stofftier</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
@@ -29248,7 +30154,7 @@
       </c>
       <c r="O38" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O38" ca="1">INDEX(A38:A164,RANDBETWEEN(1,127))</f>
-        <v>Schrat</v>
+        <v>Kleiner Siegelstein</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
@@ -29290,7 +30196,7 @@
       </c>
       <c r="O39" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O39" ca="1">INDEX(A39:A165,RANDBETWEEN(1,127))</f>
-        <v>Elfenknochen</v>
+        <v>Holzspielpuppe</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
@@ -29332,7 +30238,7 @@
       </c>
       <c r="O40" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O40" ca="1">INDEX(A40:A166,RANDBETWEEN(1,127))</f>
-        <v>Brief</v>
+        <v>Laute</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
@@ -29374,7 +30280,7 @@
       </c>
       <c r="O41" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O41" ca="1">INDEX(A41:A167,RANDBETWEEN(1,127))</f>
-        <v>Elfenknochen</v>
+        <v>Ausdauertrank S2 M</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
@@ -29416,7 +30322,7 @@
       </c>
       <c r="O42" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O42" ca="1">INDEX(A42:A168,RANDBETWEEN(1,127))</f>
-        <v>Bessere Kleidung</v>
+        <v>Kleiner Lederbeutel</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.3">
@@ -29458,7 +30364,7 @@
       </c>
       <c r="O43" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O43" ca="1">INDEX(A43:A169,RANDBETWEEN(1,127))</f>
-        <v>Gewöhnliche Kleidung</v>
+        <v>Glasflasche</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
@@ -29500,7 +30406,7 @@
       </c>
       <c r="O44" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O44" ca="1">INDEX(A44:A170,RANDBETWEEN(1,127))</f>
-        <v>Silbergabel</v>
+        <v>Quarzkristall</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
@@ -29542,7 +30448,7 @@
       </c>
       <c r="O45" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O45" ca="1">INDEX(A45:A171,RANDBETWEEN(1,127))</f>
-        <v>Nebelgrantika S3 B</v>
+        <v>Zwergenstahlbarren</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.3">
@@ -29584,7 +30490,7 @@
       </c>
       <c r="O46" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O46" ca="1">INDEX(A46:A172,RANDBETWEEN(1,127))</f>
-        <v>Ausdauertrank S1 M</v>
+        <v>Exquisite Kleidung</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
@@ -29626,7 +30532,7 @@
       </c>
       <c r="O47" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O47" ca="1">INDEX(A47:A173,RANDBETWEEN(1,127))</f>
-        <v>Gegengifttrank S5 M</v>
+        <v>Fellstiefel</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.3">
@@ -29668,7 +30574,7 @@
       </c>
       <c r="O48" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O48" ca="1">INDEX(A48:A174,RANDBETWEEN(1,127))</f>
-        <v>Zwergenstahlbarren</v>
+        <v>Kleine Tranktasche</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.3">
@@ -29710,7 +30616,7 @@
       </c>
       <c r="O49" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O49" ca="1">INDEX(A49:A175,RANDBETWEEN(1,127))</f>
-        <v>Rehledermütze</v>
+        <v>Euphorika S1 M</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.3">
@@ -29752,7 +30658,7 @@
       </c>
       <c r="O50" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O50" ca="1">INDEX(A50:A176,RANDBETWEEN(1,127))</f>
-        <v>Dudelsack</v>
+        <v>Paralysetrank S3 M</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.3">
@@ -29794,7 +30700,7 @@
       </c>
       <c r="O51" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O51" ca="1">INDEX(A51:A177,RANDBETWEEN(1,127))</f>
-        <v>Feuerpilz</v>
+        <v>Holzhammer</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.3">
@@ -29836,7 +30742,7 @@
       </c>
       <c r="O52" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O52" ca="1">INDEX(A52:A178,RANDBETWEEN(1,127))</f>
-        <v>Fellstiefel</v>
+        <v>Siegel eines Ruhehofbewahrer</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.3">
@@ -29878,7 +30784,7 @@
       </c>
       <c r="O53" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O53" ca="1">INDEX(A53:A179,RANDBETWEEN(1,127))</f>
-        <v>Stahlbarren</v>
+        <v>Gegengifttrank S4 M</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.3">
@@ -29920,7 +30826,7 @@
       </c>
       <c r="O54" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O54" ca="1">INDEX(A54:A180,RANDBETWEEN(1,127))</f>
-        <v>Eisenbarren</v>
+        <v>Dudelsack</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.3">
@@ -29962,7 +30868,7 @@
       </c>
       <c r="O55" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O55" ca="1">INDEX(A55:A181,RANDBETWEEN(1,127))</f>
-        <v>Heiltrank S4 M</v>
+        <v>Quarzkristall</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.3">
@@ -30004,7 +30910,7 @@
       </c>
       <c r="O56" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O56" ca="1">INDEX(A56:A182,RANDBETWEEN(1,127))</f>
-        <v>Einpersonen Zelt</v>
+        <v>Fackel</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.3">
@@ -30046,7 +30952,7 @@
       </c>
       <c r="O57" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O57" ca="1">INDEX(A57:A183,RANDBETWEEN(1,127))</f>
-        <v>Molotovika S2 B</v>
+        <v>Laute</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.3">
@@ -30088,7 +30994,7 @@
       </c>
       <c r="O58" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O58" ca="1">INDEX(A58:A184,RANDBETWEEN(1,127))</f>
-        <v>Merkwürdiges Metall</v>
+        <v>Antipyretika S2 M</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.3">
@@ -30130,7 +31036,7 @@
       </c>
       <c r="O59" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O59" ca="1">INDEX(A59:A185,RANDBETWEEN(1,127))</f>
-        <v>Enterhaken</v>
+        <v>Kleiner Lederbeutel</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.3">

--- a/OrbisGame/Container/Data/MiscItemListe.xlsx
+++ b/OrbisGame/Container/Data/MiscItemListe.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Dropbox\OrbisAstea\Rpg\Container\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC7F6E50-C10A-45A5-B294-84BE78A554A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A244BD7F-18E1-423A-AEBD-0795B5878A35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="8100" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-57720" yWindow="8055" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Alle Gegenstände" sheetId="3" r:id="rId1"/>
@@ -6076,9 +6076,9 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:N837"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A802" workbookViewId="0">
+    <sheetView topLeftCell="A818" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B839" sqref="B839"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.87890625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -29050,8 +29050,8 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:O385"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="F90" sqref="F90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -29146,7 +29146,7 @@
       </c>
       <c r="O2" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O2" ca="1">INDEX(A2:A128,RANDBETWEEN(1,127))</f>
-        <v>Rose</v>
+        <v>Leinen</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.5">
@@ -29188,7 +29188,7 @@
       </c>
       <c r="O3" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O3" ca="1">INDEX(A3:A129,RANDBETWEEN(1,127))</f>
-        <v>Schweinekopf</v>
+        <v>Bombenflasche</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.5">
@@ -29230,7 +29230,7 @@
       </c>
       <c r="O4" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O4" ca="1">INDEX(A4:A130,RANDBETWEEN(1,127))</f>
-        <v>Kleines Stück Seide</v>
+        <v>Felldecke</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.5">
@@ -29272,7 +29272,7 @@
       </c>
       <c r="O5" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O5" ca="1">INDEX(A5:A131,RANDBETWEEN(1,127))</f>
-        <v>Fackel</v>
+        <v>Angel</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.5">
@@ -29314,7 +29314,7 @@
       </c>
       <c r="O6" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O6" ca="1">INDEX(A6:A132,RANDBETWEEN(1,127))</f>
-        <v>Papier</v>
+        <v>Gerantschrat</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.5">
@@ -29356,7 +29356,7 @@
       </c>
       <c r="O7" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O7" ca="1">INDEX(A7:A133,RANDBETWEEN(1,127))</f>
-        <v>Bier</v>
+        <v>Silbergabel</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.5">
@@ -29398,7 +29398,7 @@
       </c>
       <c r="O8" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O8" ca="1">INDEX(A8:A134,RANDBETWEEN(1,127))</f>
-        <v>Eisenhandschellen</v>
+        <v>Gute Wurst</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.5">
@@ -29440,7 +29440,7 @@
       </c>
       <c r="O9" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O9" ca="1">INDEX(A9:A135,RANDBETWEEN(1,127))</f>
-        <v>Kleines Stück Seide</v>
+        <v>Rahkari Schnaps</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.5">
@@ -29482,7 +29482,7 @@
       </c>
       <c r="O10" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O10" ca="1">INDEX(A10:A136,RANDBETWEEN(1,127))</f>
-        <v>Geweihstücke</v>
+        <v>Pamphlet</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.5">
@@ -29524,7 +29524,7 @@
       </c>
       <c r="O11" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O11" ca="1">INDEX(A11:A137,RANDBETWEEN(1,127))</f>
-        <v>Seil 3 Meter</v>
+        <v>Dreckiges Fell</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.5">
@@ -29566,7 +29566,7 @@
       </c>
       <c r="O12" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O12" ca="1">INDEX(A12:A138,RANDBETWEEN(1,127))</f>
-        <v>Eisenkette 5 m</v>
+        <v>Gifttrank S1 M</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.5">
@@ -29608,7 +29608,7 @@
       </c>
       <c r="O13" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O13" ca="1">INDEX(A13:A139,RANDBETWEEN(1,127))</f>
-        <v>Wein</v>
+        <v>Gerantschrat</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.5">
@@ -29650,7 +29650,7 @@
       </c>
       <c r="O14" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O14" ca="1">INDEX(A14:A140,RANDBETWEEN(1,127))</f>
-        <v>Salzbeutel</v>
+        <v>Goldkette</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.5">
@@ -29692,7 +29692,7 @@
       </c>
       <c r="O15" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O15" ca="1">INDEX(A15:A141,RANDBETWEEN(1,127))</f>
-        <v>Holzkiste 100 cm</v>
+        <v>Kochttopf</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.5">
@@ -29734,7 +29734,7 @@
       </c>
       <c r="O16" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O16" ca="1">INDEX(A16:A142,RANDBETWEEN(1,127))</f>
-        <v>Brennholz</v>
+        <v>Papier</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.5">
@@ -29776,7 +29776,7 @@
       </c>
       <c r="O17" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O17" ca="1">INDEX(A17:A143,RANDBETWEEN(1,127))</f>
-        <v>Blumenstrauß</v>
+        <v>Pamphlet</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.5">
@@ -29818,7 +29818,7 @@
       </c>
       <c r="O18" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O18" ca="1">INDEX(A18:A144,RANDBETWEEN(1,127))</f>
-        <v>Kochttopf</v>
+        <v>Angel</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.5">
@@ -29860,7 +29860,7 @@
       </c>
       <c r="O19" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O19" ca="1">INDEX(A19:A145,RANDBETWEEN(1,127))</f>
-        <v>Sapphir</v>
+        <v>Spielkarten</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.5">
@@ -29902,7 +29902,7 @@
       </c>
       <c r="O20" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O20" ca="1">INDEX(A20:A146,RANDBETWEEN(1,127))</f>
-        <v>Schmiedehammer</v>
+        <v>Kaisotherz</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.5">
@@ -29944,7 +29944,7 @@
       </c>
       <c r="O21" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O21" ca="1">INDEX(A21:A147,RANDBETWEEN(1,127))</f>
-        <v>Fellstiefel</v>
+        <v>kleine Metallschaufel</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.5">
@@ -29986,7 +29986,7 @@
       </c>
       <c r="O22" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O22" ca="1">INDEX(A22:A148,RANDBETWEEN(1,127))</f>
-        <v>Blumenstrauß</v>
+        <v>Buch</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.5">
@@ -30028,7 +30028,7 @@
       </c>
       <c r="O23" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O23" ca="1">INDEX(A23:A149,RANDBETWEEN(1,127))</f>
-        <v>Granatstein</v>
+        <v>Feuerpilz</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.5">
@@ -30070,7 +30070,7 @@
       </c>
       <c r="O24" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O24" ca="1">INDEX(A24:A150,RANDBETWEEN(1,127))</f>
-        <v>Zwergenstahlbarren</v>
+        <v>Gerantschrat</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.5">
@@ -30112,7 +30112,7 @@
       </c>
       <c r="O25" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O25" ca="1">INDEX(A25:A151,RANDBETWEEN(1,127))</f>
-        <v>Blumenstrauß</v>
+        <v>Eisenhandschellen</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.5">
@@ -30154,7 +30154,7 @@
       </c>
       <c r="O26" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O26" ca="1">INDEX(A26:A152,RANDBETWEEN(1,127))</f>
-        <v>Stofftier</v>
+        <v>Sapphir</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.5">
@@ -30196,7 +30196,7 @@
       </c>
       <c r="O27" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O27" ca="1">INDEX(A27:A153,RANDBETWEEN(1,127))</f>
-        <v>Sapphir</v>
+        <v>Mittlere Tranktasche</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.5">
@@ -30238,7 +30238,7 @@
       </c>
       <c r="O28" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O28" ca="1">INDEX(A28:A154,RANDBETWEEN(1,127))</f>
-        <v>Eisenkette 5 m</v>
+        <v>Schmiedehammer</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.5">
@@ -30280,7 +30280,7 @@
       </c>
       <c r="O29" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O29" ca="1">INDEX(A29:A155,RANDBETWEEN(1,127))</f>
-        <v>Fächer</v>
+        <v>Papier</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.5">
@@ -30322,7 +30322,7 @@
       </c>
       <c r="O30" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O30" ca="1">INDEX(A30:A156,RANDBETWEEN(1,127))</f>
-        <v>Geweihstücke</v>
+        <v>Kleiner Siegelstein</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.5">
@@ -30364,7 +30364,7 @@
       </c>
       <c r="O31" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O31" ca="1">INDEX(A31:A157,RANDBETWEEN(1,127))</f>
-        <v>Große Tranktasche</v>
+        <v>Seife</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.5">
@@ -30406,7 +30406,7 @@
       </c>
       <c r="O32" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O32" ca="1">INDEX(A32:A158,RANDBETWEEN(1,127))</f>
-        <v>Bessere Kleidung</v>
+        <v>Kaisotherz</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.5">
@@ -30448,7 +30448,7 @@
       </c>
       <c r="O33" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O33" ca="1">INDEX(A33:A159,RANDBETWEEN(1,127))</f>
-        <v>Bärenfalle</v>
+        <v>Mittlere Tranktasche</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.5">
@@ -30490,7 +30490,7 @@
       </c>
       <c r="O34" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O34" ca="1">INDEX(A34:A160,RANDBETWEEN(1,127))</f>
-        <v>Paralysetrank S3 M</v>
+        <v>Würfel</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.5">
@@ -30532,7 +30532,7 @@
       </c>
       <c r="O35" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O35" ca="1">INDEX(A35:A161,RANDBETWEEN(1,127))</f>
-        <v>Becher mit Würmern</v>
+        <v>Quarzkristall</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.5">
@@ -30574,7 +30574,7 @@
       </c>
       <c r="O36" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O36" ca="1">INDEX(A36:A162,RANDBETWEEN(1,127))</f>
-        <v>Stahlbarren</v>
+        <v>Angel</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.5">
@@ -30616,7 +30616,7 @@
       </c>
       <c r="O37" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O37" ca="1">INDEX(A37:A163,RANDBETWEEN(1,127))</f>
-        <v>Zwergenstahlbarren</v>
+        <v>Blumenstrauß</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.5">
@@ -30658,7 +30658,7 @@
       </c>
       <c r="O38" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O38" ca="1">INDEX(A38:A164,RANDBETWEEN(1,127))</f>
-        <v>Glasflasche</v>
+        <v>Goldbarren</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.5">
@@ -30700,7 +30700,7 @@
       </c>
       <c r="O39" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O39" ca="1">INDEX(A39:A165,RANDBETWEEN(1,127))</f>
-        <v>Siegel eines Ruhehofbewahrer</v>
+        <v>Holztisch Groß</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.5">
@@ -30742,7 +30742,7 @@
       </c>
       <c r="O40" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O40" ca="1">INDEX(A40:A166,RANDBETWEEN(1,127))</f>
-        <v>Mittlere Tranktasche</v>
+        <v>Adrenalinika S5 M</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.5">
@@ -30784,7 +30784,7 @@
       </c>
       <c r="O41" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O41" ca="1">INDEX(A41:A167,RANDBETWEEN(1,127))</f>
-        <v>Spielkarten</v>
+        <v>Heiltrank S3 M</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.5">
@@ -30826,7 +30826,7 @@
       </c>
       <c r="O42" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O42" ca="1">INDEX(A42:A168,RANDBETWEEN(1,127))</f>
-        <v>Nebelgrantika S2 B</v>
+        <v>Ausdauertrank S1 M</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.5">
@@ -30868,7 +30868,7 @@
       </c>
       <c r="O43" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O43" ca="1">INDEX(A43:A169,RANDBETWEEN(1,127))</f>
-        <v>Ausdauertrank S2 M</v>
+        <v>Schrat</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.5">
@@ -30910,7 +30910,7 @@
       </c>
       <c r="O44" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O44" ca="1">INDEX(A44:A170,RANDBETWEEN(1,127))</f>
-        <v>Stahlbarren gehärtet</v>
+        <v>Sicht S4 M</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.5">
@@ -30952,7 +30952,7 @@
       </c>
       <c r="O45" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O45" ca="1">INDEX(A45:A171,RANDBETWEEN(1,127))</f>
-        <v>Enterhaken</v>
+        <v>Kleiner Lederbeutel</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.5">
@@ -30994,7 +30994,7 @@
       </c>
       <c r="O46" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O46" ca="1">INDEX(A46:A172,RANDBETWEEN(1,127))</f>
-        <v>Würfel</v>
+        <v>Molotovika S2 B</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.5">
@@ -31036,7 +31036,7 @@
       </c>
       <c r="O47" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O47" ca="1">INDEX(A47:A173,RANDBETWEEN(1,127))</f>
-        <v>Rubin</v>
+        <v>Kleines Stück Seide</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.5">
@@ -31078,7 +31078,7 @@
       </c>
       <c r="O48" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O48" ca="1">INDEX(A48:A174,RANDBETWEEN(1,127))</f>
-        <v>Paralysetrank S3 M</v>
+        <v>Geweihstücke</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.5">
@@ -31120,7 +31120,7 @@
       </c>
       <c r="O49" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O49" ca="1">INDEX(A49:A175,RANDBETWEEN(1,127))</f>
-        <v>Paralysetrank S4 M</v>
+        <v>Holzhammer</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.5">
@@ -31162,7 +31162,7 @@
       </c>
       <c r="O50" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O50" ca="1">INDEX(A50:A176,RANDBETWEEN(1,127))</f>
-        <v>Silbermesser</v>
+        <v>Bessere Kleidung</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.5">
@@ -31204,7 +31204,7 @@
       </c>
       <c r="O51" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O51" ca="1">INDEX(A51:A177,RANDBETWEEN(1,127))</f>
-        <v>Gegengifttrank S3 M</v>
+        <v>Madnika S4 M</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.5">
@@ -31246,7 +31246,7 @@
       </c>
       <c r="O52" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O52" ca="1">INDEX(A52:A178,RANDBETWEEN(1,127))</f>
-        <v>Goldbarren</v>
+        <v>Euphorika S4 M</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.5">
@@ -31288,7 +31288,7 @@
       </c>
       <c r="O53" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O53" ca="1">INDEX(A53:A179,RANDBETWEEN(1,127))</f>
-        <v>Große Tranktasche</v>
+        <v>Schlafsack</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.5">
@@ -31330,7 +31330,7 @@
       </c>
       <c r="O54" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O54" ca="1">INDEX(A54:A180,RANDBETWEEN(1,127))</f>
-        <v>Epinephrinika S2 M</v>
+        <v>Nebelgrantika S4 B</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.5">
@@ -31372,7 +31372,7 @@
       </c>
       <c r="O55" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O55" ca="1">INDEX(A55:A181,RANDBETWEEN(1,127))</f>
-        <v>Feuerstahl</v>
+        <v>Mittlere Tranktasche</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.5">
@@ -31414,7 +31414,7 @@
       </c>
       <c r="O56" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O56" ca="1">INDEX(A56:A182,RANDBETWEEN(1,127))</f>
-        <v>Aphrodisika S4 M</v>
+        <v>Strickleiter</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.5">
@@ -31456,7 +31456,7 @@
       </c>
       <c r="O57" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O57" ca="1">INDEX(A57:A183,RANDBETWEEN(1,127))</f>
-        <v>Große Tranktasche</v>
+        <v>Brief</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.5">
@@ -31498,7 +31498,7 @@
       </c>
       <c r="O58" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O58" ca="1">INDEX(A58:A184,RANDBETWEEN(1,127))</f>
-        <v>Papier</v>
+        <v>Molotovika S3 B</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.5">
@@ -31540,7 +31540,7 @@
       </c>
       <c r="O59" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O59" ca="1">INDEX(A59:A185,RANDBETWEEN(1,127))</f>
-        <v>Geschnitzte Figur</v>
+        <v>Kleines Stück Seide</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.5">

--- a/OrbisGame/Container/Data/MiscItemListe.xlsx
+++ b/OrbisGame/Container/Data/MiscItemListe.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Dropbox\OrbisAstea\Rpg\Container\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A244BD7F-18E1-423A-AEBD-0795B5878A35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84E09FCF-E598-4534-B6EA-6A35BDE6F757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="8055" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-57720" yWindow="8055" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Alle Gegenstände" sheetId="3" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8356" uniqueCount="1826">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8356" uniqueCount="1838">
   <si>
     <t>Tränke</t>
   </si>
@@ -5556,6 +5556,42 @@
   </si>
   <si>
     <t>Liedtext Hymne T4 demotivierend</t>
+  </si>
+  <si>
+    <t>Entwaffnungschance 50, Rüstungswert: 10,5</t>
+  </si>
+  <si>
+    <t>Entwaffnungschance 50, Rüstungswert: 14,7</t>
+  </si>
+  <si>
+    <t>Entwaffnungschance 50, Rüstungswert: 16,8</t>
+  </si>
+  <si>
+    <t>Entwaffnungschance 50, Rüstungswert: 18,55</t>
+  </si>
+  <si>
+    <t>Entwaffnungschance 30, Rüstungswert: 16,5</t>
+  </si>
+  <si>
+    <t>Entwaffnungschance 30, Rüstungswert: 23,1</t>
+  </si>
+  <si>
+    <t>Entwaffnungschance 30, Rüstungswert: 26,4</t>
+  </si>
+  <si>
+    <t>Entwaffnungschance 30, Rüstungswert: 29,15</t>
+  </si>
+  <si>
+    <t>Entwaffnungschance 5, Rüstungswert: 22,5</t>
+  </si>
+  <si>
+    <t>Entwaffnungschance 5, Rüstungswert: 31,5</t>
+  </si>
+  <si>
+    <t>Entwaffnungschance 5, Rüstungswert: 36</t>
+  </si>
+  <si>
+    <t>Entwaffnungschance 5, Rüstungswert: 39,75</t>
   </si>
 </sst>
 </file>
@@ -6076,9 +6112,9 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:N837"/>
   <sheetViews>
-    <sheetView topLeftCell="A818" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="topRight" activeCell="F838" sqref="F838"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.87890625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -21343,7 +21379,7 @@
         <v xml:space="preserve">Hehler, Allgemein, , Schmied, , , </v>
       </c>
       <c r="F567" s="13" t="s">
-        <v>1318</v>
+        <v>1826</v>
       </c>
       <c r="G567">
         <v>10</v>
@@ -21376,7 +21412,7 @@
         <v xml:space="preserve">Hehler, Allgemein, , Schmied, , , </v>
       </c>
       <c r="F568" s="13" t="s">
-        <v>1320</v>
+        <v>1830</v>
       </c>
       <c r="G568">
         <v>9</v>
@@ -21409,7 +21445,7 @@
         <v xml:space="preserve">Hehler, , , Schmied, , , </v>
       </c>
       <c r="F569" s="13" t="s">
-        <v>1322</v>
+        <v>1834</v>
       </c>
       <c r="G569">
         <v>8</v>
@@ -21439,7 +21475,7 @@
         <v xml:space="preserve">Hehler, , , Schmied, , , </v>
       </c>
       <c r="F570" s="13" t="s">
-        <v>1324</v>
+        <v>1827</v>
       </c>
       <c r="G570">
         <v>7</v>
@@ -21469,7 +21505,7 @@
         <v xml:space="preserve">Hehler, , , Schmied, , , </v>
       </c>
       <c r="F571" s="13" t="s">
-        <v>1326</v>
+        <v>1831</v>
       </c>
       <c r="G571">
         <v>7</v>
@@ -21499,7 +21535,7 @@
         <v xml:space="preserve">Hehler, , , Schmied, , , </v>
       </c>
       <c r="F572" s="13" t="s">
-        <v>1328</v>
+        <v>1835</v>
       </c>
       <c r="G572">
         <v>5</v>
@@ -21529,7 +21565,7 @@
         <v xml:space="preserve">, , , Schmied, , , </v>
       </c>
       <c r="F573" s="13" t="s">
-        <v>1330</v>
+        <v>1828</v>
       </c>
       <c r="G573">
         <v>2</v>
@@ -21556,7 +21592,7 @@
         <v xml:space="preserve">, , , Schmied, , , </v>
       </c>
       <c r="F574" s="13" t="s">
-        <v>1332</v>
+        <v>1832</v>
       </c>
       <c r="G574">
         <v>2</v>
@@ -21583,7 +21619,7 @@
         <v xml:space="preserve">, , , Schmied, , , </v>
       </c>
       <c r="F575" s="13" t="s">
-        <v>1334</v>
+        <v>1836</v>
       </c>
       <c r="G575">
         <v>2</v>
@@ -21610,7 +21646,7 @@
         <v xml:space="preserve">, , , Schmied, , , </v>
       </c>
       <c r="F576" s="13" t="s">
-        <v>1336</v>
+        <v>1829</v>
       </c>
       <c r="G576">
         <v>0.1</v>
@@ -21637,7 +21673,7 @@
         <v xml:space="preserve">, , , Schmied, , , </v>
       </c>
       <c r="F577" s="13" t="s">
-        <v>1338</v>
+        <v>1833</v>
       </c>
       <c r="G577">
         <v>0.1</v>
@@ -21664,7 +21700,7 @@
         <v xml:space="preserve">, , , Schmied, , , </v>
       </c>
       <c r="F578" s="13" t="s">
-        <v>1340</v>
+        <v>1837</v>
       </c>
       <c r="G578">
         <v>0.1</v>
@@ -29050,7 +29086,7 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:O385"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+    <sheetView topLeftCell="A64" workbookViewId="0">
       <selection activeCell="F90" sqref="F90"/>
     </sheetView>
   </sheetViews>
@@ -29146,7 +29182,7 @@
       </c>
       <c r="O2" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O2" ca="1">INDEX(A2:A128,RANDBETWEEN(1,127))</f>
-        <v>Leinen</v>
+        <v>Fackel</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.5">
@@ -29188,7 +29224,7 @@
       </c>
       <c r="O3" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O3" ca="1">INDEX(A3:A129,RANDBETWEEN(1,127))</f>
-        <v>Bombenflasche</v>
+        <v>Bohnen</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.5">
@@ -29230,7 +29266,7 @@
       </c>
       <c r="O4" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O4" ca="1">INDEX(A4:A130,RANDBETWEEN(1,127))</f>
-        <v>Felldecke</v>
+        <v>Bohneneintopf</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.5">
@@ -29272,7 +29308,7 @@
       </c>
       <c r="O5" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O5" ca="1">INDEX(A5:A131,RANDBETWEEN(1,127))</f>
-        <v>Angel</v>
+        <v>Holztisch Klein</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.5">
@@ -29314,7 +29350,7 @@
       </c>
       <c r="O6" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O6" ca="1">INDEX(A6:A132,RANDBETWEEN(1,127))</f>
-        <v>Gerantschrat</v>
+        <v>Seife</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.5">
@@ -29356,7 +29392,7 @@
       </c>
       <c r="O7" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O7" ca="1">INDEX(A7:A133,RANDBETWEEN(1,127))</f>
-        <v>Silbergabel</v>
+        <v>Exquisite Angel</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.5">
@@ -29398,7 +29434,7 @@
       </c>
       <c r="O8" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O8" ca="1">INDEX(A8:A134,RANDBETWEEN(1,127))</f>
-        <v>Gute Wurst</v>
+        <v>Salzbeutel</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.5">
@@ -29440,7 +29476,7 @@
       </c>
       <c r="O9" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O9" ca="1">INDEX(A9:A135,RANDBETWEEN(1,127))</f>
-        <v>Rahkari Schnaps</v>
+        <v>Inquistororden</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.5">
@@ -29482,7 +29518,7 @@
       </c>
       <c r="O10" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O10" ca="1">INDEX(A10:A136,RANDBETWEEN(1,127))</f>
-        <v>Pamphlet</v>
+        <v>Fackel</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.5">
@@ -29524,7 +29560,7 @@
       </c>
       <c r="O11" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O11" ca="1">INDEX(A11:A137,RANDBETWEEN(1,127))</f>
-        <v>Dreckiges Fell</v>
+        <v>Heiltrank S2 M</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.5">
@@ -29566,7 +29602,7 @@
       </c>
       <c r="O12" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O12" ca="1">INDEX(A12:A138,RANDBETWEEN(1,127))</f>
-        <v>Gifttrank S1 M</v>
+        <v>Feuerpilz</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.5">
@@ -29608,7 +29644,7 @@
       </c>
       <c r="O13" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O13" ca="1">INDEX(A13:A139,RANDBETWEEN(1,127))</f>
-        <v>Gerantschrat</v>
+        <v>Silbermesser</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.5">
@@ -29650,7 +29686,7 @@
       </c>
       <c r="O14" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O14" ca="1">INDEX(A14:A140,RANDBETWEEN(1,127))</f>
-        <v>Goldkette</v>
+        <v>Trockenfleisch</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.5">
@@ -29692,7 +29728,7 @@
       </c>
       <c r="O15" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O15" ca="1">INDEX(A15:A141,RANDBETWEEN(1,127))</f>
-        <v>Kochttopf</v>
+        <v>Holztisch Klein</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.5">
@@ -29734,7 +29770,7 @@
       </c>
       <c r="O16" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O16" ca="1">INDEX(A16:A142,RANDBETWEEN(1,127))</f>
-        <v>Papier</v>
+        <v>Lindwurmaut</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.5">
@@ -29776,7 +29812,7 @@
       </c>
       <c r="O17" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O17" ca="1">INDEX(A17:A143,RANDBETWEEN(1,127))</f>
-        <v>Pamphlet</v>
+        <v>Paralysetrank S5 M</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.5">
@@ -29818,7 +29854,7 @@
       </c>
       <c r="O18" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O18" ca="1">INDEX(A18:A144,RANDBETWEEN(1,127))</f>
-        <v>Angel</v>
+        <v>Gifttrank S1 M</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.5">
@@ -29860,7 +29896,7 @@
       </c>
       <c r="O19" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O19" ca="1">INDEX(A19:A145,RANDBETWEEN(1,127))</f>
-        <v>Spielkarten</v>
+        <v>Ausdauertrank S1 M</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.5">
@@ -29902,7 +29938,7 @@
       </c>
       <c r="O20" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O20" ca="1">INDEX(A20:A146,RANDBETWEEN(1,127))</f>
-        <v>Kaisotherz</v>
+        <v>Brennholz</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.5">
@@ -29944,7 +29980,7 @@
       </c>
       <c r="O21" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O21" ca="1">INDEX(A21:A147,RANDBETWEEN(1,127))</f>
-        <v>kleine Metallschaufel</v>
+        <v>Enterhaken</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.5">
@@ -29986,7 +30022,7 @@
       </c>
       <c r="O22" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O22" ca="1">INDEX(A22:A148,RANDBETWEEN(1,127))</f>
-        <v>Buch</v>
+        <v>Warmes Metall</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.5">
@@ -30028,7 +30064,7 @@
       </c>
       <c r="O23" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O23" ca="1">INDEX(A23:A149,RANDBETWEEN(1,127))</f>
-        <v>Feuerpilz</v>
+        <v>Bombenflasche</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.5">
@@ -30070,7 +30106,7 @@
       </c>
       <c r="O24" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O24" ca="1">INDEX(A24:A150,RANDBETWEEN(1,127))</f>
-        <v>Gerantschrat</v>
+        <v>Eisenhandschellen</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.5">
@@ -30112,7 +30148,7 @@
       </c>
       <c r="O25" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O25" ca="1">INDEX(A25:A151,RANDBETWEEN(1,127))</f>
-        <v>Eisenhandschellen</v>
+        <v>Felldecke</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.5">
@@ -30154,7 +30190,7 @@
       </c>
       <c r="O26" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O26" ca="1">INDEX(A26:A152,RANDBETWEEN(1,127))</f>
-        <v>Sapphir</v>
+        <v>Seife</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.5">
@@ -30196,7 +30232,7 @@
       </c>
       <c r="O27" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O27" ca="1">INDEX(A27:A153,RANDBETWEEN(1,127))</f>
-        <v>Mittlere Tranktasche</v>
+        <v>Adrenalinika S3 M</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.5">
@@ -30238,7 +30274,7 @@
       </c>
       <c r="O28" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O28" ca="1">INDEX(A28:A154,RANDBETWEEN(1,127))</f>
-        <v>Schmiedehammer</v>
+        <v>Gifttrank S3 M</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.5">
@@ -30280,7 +30316,7 @@
       </c>
       <c r="O29" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O29" ca="1">INDEX(A29:A155,RANDBETWEEN(1,127))</f>
-        <v>Papier</v>
+        <v>Silbergabel</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.5">
@@ -30322,7 +30358,7 @@
       </c>
       <c r="O30" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O30" ca="1">INDEX(A30:A156,RANDBETWEEN(1,127))</f>
-        <v>Kleiner Siegelstein</v>
+        <v>Heiltrank S3 M</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.5">
@@ -30364,7 +30400,7 @@
       </c>
       <c r="O31" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O31" ca="1">INDEX(A31:A157,RANDBETWEEN(1,127))</f>
-        <v>Seife</v>
+        <v>Warmes Metall</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.5">
@@ -30406,7 +30442,7 @@
       </c>
       <c r="O32" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O32" ca="1">INDEX(A32:A158,RANDBETWEEN(1,127))</f>
-        <v>Kaisotherz</v>
+        <v>Silbermesser</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.5">
@@ -30448,7 +30484,7 @@
       </c>
       <c r="O33" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O33" ca="1">INDEX(A33:A159,RANDBETWEEN(1,127))</f>
-        <v>Mittlere Tranktasche</v>
+        <v>Becher mit Würmern</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.5">
@@ -30490,7 +30526,7 @@
       </c>
       <c r="O34" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O34" ca="1">INDEX(A34:A160,RANDBETWEEN(1,127))</f>
-        <v>Würfel</v>
+        <v>Heiltrank S3 M</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.5">
@@ -30532,7 +30568,7 @@
       </c>
       <c r="O35" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O35" ca="1">INDEX(A35:A161,RANDBETWEEN(1,127))</f>
-        <v>Quarzkristall</v>
+        <v>Eisenkette 5 m</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.5">
@@ -30574,7 +30610,7 @@
       </c>
       <c r="O36" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O36" ca="1">INDEX(A36:A162,RANDBETWEEN(1,127))</f>
-        <v>Angel</v>
+        <v>Glasflasche</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.5">
@@ -30616,7 +30652,7 @@
       </c>
       <c r="O37" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O37" ca="1">INDEX(A37:A163,RANDBETWEEN(1,127))</f>
-        <v>Blumenstrauß</v>
+        <v>Lindwurmaut</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.5">
@@ -30658,7 +30694,7 @@
       </c>
       <c r="O38" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O38" ca="1">INDEX(A38:A164,RANDBETWEEN(1,127))</f>
-        <v>Goldbarren</v>
+        <v>Fächer</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.5">
@@ -30700,7 +30736,7 @@
       </c>
       <c r="O39" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O39" ca="1">INDEX(A39:A165,RANDBETWEEN(1,127))</f>
-        <v>Holztisch Groß</v>
+        <v>Ausdauertrank S1 M</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.5">
@@ -30742,7 +30778,7 @@
       </c>
       <c r="O40" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O40" ca="1">INDEX(A40:A166,RANDBETWEEN(1,127))</f>
-        <v>Adrenalinika S5 M</v>
+        <v>Silbermesser</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.5">
@@ -30784,7 +30820,7 @@
       </c>
       <c r="O41" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O41" ca="1">INDEX(A41:A167,RANDBETWEEN(1,127))</f>
-        <v>Heiltrank S3 M</v>
+        <v>Holztruhe 150 x 100 cm</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.5">
@@ -30826,7 +30862,7 @@
       </c>
       <c r="O42" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O42" ca="1">INDEX(A42:A168,RANDBETWEEN(1,127))</f>
-        <v>Ausdauertrank S1 M</v>
+        <v>Kleine Tranktasche</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.5">
@@ -30868,7 +30904,7 @@
       </c>
       <c r="O43" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O43" ca="1">INDEX(A43:A169,RANDBETWEEN(1,127))</f>
-        <v>Schrat</v>
+        <v>Fell</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.5">
@@ -30910,7 +30946,7 @@
       </c>
       <c r="O44" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O44" ca="1">INDEX(A44:A170,RANDBETWEEN(1,127))</f>
-        <v>Sicht S4 M</v>
+        <v>Bombenflasche</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.5">
@@ -30952,7 +30988,7 @@
       </c>
       <c r="O45" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O45" ca="1">INDEX(A45:A171,RANDBETWEEN(1,127))</f>
-        <v>Kleiner Lederbeutel</v>
+        <v>Paralysetrank S6 M</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.5">
@@ -30994,7 +31030,7 @@
       </c>
       <c r="O46" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O46" ca="1">INDEX(A46:A172,RANDBETWEEN(1,127))</f>
-        <v>Molotovika S2 B</v>
+        <v>Gifttrank S3 M</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.5">
@@ -31036,7 +31072,7 @@
       </c>
       <c r="O47" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O47" ca="1">INDEX(A47:A173,RANDBETWEEN(1,127))</f>
-        <v>Kleines Stück Seide</v>
+        <v>Fellstiefel</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.5">
@@ -31078,7 +31114,7 @@
       </c>
       <c r="O48" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O48" ca="1">INDEX(A48:A174,RANDBETWEEN(1,127))</f>
-        <v>Geweihstücke</v>
+        <v>Heiltrank S4 M</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.5">
@@ -31120,7 +31156,7 @@
       </c>
       <c r="O49" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O49" ca="1">INDEX(A49:A175,RANDBETWEEN(1,127))</f>
-        <v>Holzhammer</v>
+        <v>Heiltrank S3 M</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.5">
@@ -31162,7 +31198,7 @@
       </c>
       <c r="O50" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O50" ca="1">INDEX(A50:A176,RANDBETWEEN(1,127))</f>
-        <v>Bessere Kleidung</v>
+        <v>Spielkarten</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.5">
@@ -31204,7 +31240,7 @@
       </c>
       <c r="O51" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O51" ca="1">INDEX(A51:A177,RANDBETWEEN(1,127))</f>
-        <v>Madnika S4 M</v>
+        <v>Ausdauertrank S2 M</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.5">
@@ -31246,7 +31282,7 @@
       </c>
       <c r="O52" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O52" ca="1">INDEX(A52:A178,RANDBETWEEN(1,127))</f>
-        <v>Euphorika S4 M</v>
+        <v>Elfenknochen</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.5">
@@ -31288,7 +31324,7 @@
       </c>
       <c r="O53" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O53" ca="1">INDEX(A53:A179,RANDBETWEEN(1,127))</f>
-        <v>Schlafsack</v>
+        <v>Nebelgrantika S5 B</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.5">
@@ -31330,7 +31366,7 @@
       </c>
       <c r="O54" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O54" ca="1">INDEX(A54:A180,RANDBETWEEN(1,127))</f>
-        <v>Nebelgrantika S4 B</v>
+        <v>Becher mit Würmern</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.5">
@@ -31372,7 +31408,7 @@
       </c>
       <c r="O55" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O55" ca="1">INDEX(A55:A181,RANDBETWEEN(1,127))</f>
-        <v>Mittlere Tranktasche</v>
+        <v>Becher mit Würmern</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.5">
@@ -31414,7 +31450,7 @@
       </c>
       <c r="O56" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O56" ca="1">INDEX(A56:A182,RANDBETWEEN(1,127))</f>
-        <v>Strickleiter</v>
+        <v>Gifttrank S3 M</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.5">
@@ -31456,7 +31492,7 @@
       </c>
       <c r="O57" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O57" ca="1">INDEX(A57:A183,RANDBETWEEN(1,127))</f>
-        <v>Brief</v>
+        <v>Narkotika S2 M</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.5">
@@ -31498,7 +31534,7 @@
       </c>
       <c r="O58" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O58" ca="1">INDEX(A58:A184,RANDBETWEEN(1,127))</f>
-        <v>Molotovika S3 B</v>
+        <v>Sapphir</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.5">
@@ -31540,7 +31576,7 @@
       </c>
       <c r="O59" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O59" ca="1">INDEX(A59:A185,RANDBETWEEN(1,127))</f>
-        <v>Kleines Stück Seide</v>
+        <v>Ausdauertrank S4 M</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.5">

--- a/OrbisGame/Container/Data/MiscItemListe.xlsx
+++ b/OrbisGame/Container/Data/MiscItemListe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andi\Dropbox\Rpg\Container\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A0E930E-F022-416C-A6F6-4D32D62A4D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C24DDA4-414C-4A07-BB7D-E2D11CF520FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3493,9 +3493,6 @@
     <t>Beutel mit Pollen</t>
   </si>
   <si>
-    <t>Gummimesser</t>
-  </si>
-  <si>
     <t>Anleitung zu Rauchzeichen</t>
   </si>
   <si>
@@ -3845,6 +3842,9 @@
   </si>
   <si>
     <t>Gibt einen +1 Modifikator beim nächsten Schwimmen Check.</t>
+  </si>
+  <si>
+    <t>Schere</t>
   </si>
 </sst>
 </file>
@@ -3911,7 +3911,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3957,12 +3957,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Komma" xfId="3" builtinId="3"/>
@@ -4295,9 +4289,9 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:N905"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A873" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B884" sqref="B884"/>
+      <selection pane="topRight" activeCell="A130" sqref="A130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4796,7 +4790,7 @@
         <v xml:space="preserve">, Allgemein, , , , , </v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="G17">
         <v>7</v>
@@ -5151,7 +5145,7 @@
         <v xml:space="preserve">Hehler, Allgemein, , , , , </v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="G30">
         <v>7</v>
@@ -5208,7 +5202,7 @@
         <v xml:space="preserve">Hehler, Allgemein, , , , , </v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="G32">
         <v>7</v>
@@ -5379,7 +5373,7 @@
         <v xml:space="preserve">Hehler, Allgemein, , Schmied, , , </v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -6095,7 +6089,7 @@
         <v xml:space="preserve">, Allgemein, , , , , </v>
       </c>
       <c r="F64" s="14" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="G64">
         <v>5</v>
@@ -7361,7 +7355,7 @@
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="12" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="B111" s="7">
         <v>100</v>
@@ -7502,7 +7496,7 @@
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" s="12" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="B116" s="7">
         <v>100</v>
@@ -7617,7 +7611,7 @@
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" s="12" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B120" s="7">
         <v>50</v>
@@ -7888,7 +7882,7 @@
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" s="12" t="s">
-        <v>1151</v>
+        <v>1268</v>
       </c>
       <c r="B130" s="7">
         <v>75</v>
@@ -7916,7 +7910,7 @@
     </row>
     <row r="131" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A131" s="12" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="B131" s="7">
         <v>150</v>
@@ -7932,7 +7926,7 @@
         <v xml:space="preserve">, Allgemein, , , , , </v>
       </c>
       <c r="F131" s="4" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="G131">
         <v>3</v>
@@ -7943,7 +7937,7 @@
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" s="12" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B132" s="7">
         <v>650</v>
@@ -7971,7 +7965,7 @@
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" s="12" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B133" s="7">
         <v>75</v>
@@ -7999,7 +7993,7 @@
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="12" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B134" s="7">
         <v>150</v>
@@ -8030,7 +8024,7 @@
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" s="12" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="B135" s="7">
         <v>150</v>
@@ -8046,7 +8040,7 @@
         <v xml:space="preserve">, Allgemein, , , Wirt, , </v>
       </c>
       <c r="F135" s="4" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="G135">
         <v>3</v>
@@ -8060,7 +8054,7 @@
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" s="12" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="B136" s="7">
         <v>100</v>
@@ -8088,7 +8082,7 @@
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" s="12" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B137" s="7">
         <v>150</v>
@@ -8116,7 +8110,7 @@
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="12" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="B138" s="7">
         <v>50</v>
@@ -8141,7 +8135,7 @@
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" s="12" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="B139" s="7">
         <v>30</v>
@@ -8157,7 +8151,7 @@
         <v xml:space="preserve">Hehler, Allgemein, , , , , </v>
       </c>
       <c r="F139" s="4" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="G139">
         <v>3</v>
@@ -8171,7 +8165,7 @@
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" s="12" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="B140" s="7">
         <v>250</v>
@@ -8196,7 +8190,7 @@
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" s="12" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="B141" s="7">
         <v>50</v>
@@ -8221,7 +8215,7 @@
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" s="12" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="B142" s="7">
         <v>50</v>
@@ -8246,7 +8240,7 @@
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" s="12" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="B143" s="7">
         <v>15</v>
@@ -8274,7 +8268,7 @@
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" s="12" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="B144" s="7">
         <v>75</v>
@@ -8299,7 +8293,7 @@
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" s="12" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="B145" s="7">
         <v>10</v>
@@ -8321,7 +8315,7 @@
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" s="12" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="B146" s="7">
         <v>75</v>
@@ -24208,7 +24202,7 @@
         <v xml:space="preserve">, Allgemein, Alchemist, , , , </v>
       </c>
       <c r="F725" s="9" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="G725">
         <v>15</v>
@@ -24238,7 +24232,7 @@
         <v xml:space="preserve">Hehler, , , , , , </v>
       </c>
       <c r="F726" s="9" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="G726">
         <v>7</v>
@@ -24377,7 +24371,7 @@
         <v>1128</v>
       </c>
       <c r="F731" s="4" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="G731">
         <v>9</v>
@@ -24409,7 +24403,7 @@
         <v>1129</v>
       </c>
       <c r="F732" s="4" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="G732">
         <v>7</v>
@@ -24438,7 +24432,7 @@
         <v>1130</v>
       </c>
       <c r="F733" s="4" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="G733">
         <v>1.5</v>
@@ -24464,7 +24458,7 @@
         <v>1130</v>
       </c>
       <c r="F734" s="4" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="G734">
         <v>0.1</v>
@@ -24748,7 +24742,7 @@
         <v>1131</v>
       </c>
       <c r="F744" s="4" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="G744">
         <v>0</v>
@@ -24771,7 +24765,7 @@
         <v>1128</v>
       </c>
       <c r="F745" s="4" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="G745">
         <v>6</v>
@@ -24803,7 +24797,7 @@
         <v>1129</v>
       </c>
       <c r="F746" s="4" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="G746">
         <v>4</v>
@@ -24832,7 +24826,7 @@
         <v>1130</v>
       </c>
       <c r="F747" s="4" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="G747">
         <v>1.5</v>
@@ -24858,7 +24852,7 @@
         <v>1130</v>
       </c>
       <c r="F748" s="4" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="G748">
         <v>0.1</v>
@@ -24884,7 +24878,7 @@
         <v>1129</v>
       </c>
       <c r="F749" s="4" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="G749">
         <v>7</v>
@@ -24913,7 +24907,7 @@
         <v>1129</v>
       </c>
       <c r="F750" s="4" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="G750">
         <v>5</v>
@@ -24942,7 +24936,7 @@
         <v>1130</v>
       </c>
       <c r="F751" s="4" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="G751">
         <v>1.5</v>
@@ -24968,7 +24962,7 @@
         <v>1130</v>
       </c>
       <c r="F752" s="4" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="G752">
         <v>0.1</v>
@@ -25104,7 +25098,7 @@
         <v>1129</v>
       </c>
       <c r="F757" s="4" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="G757">
         <v>8</v>
@@ -25133,7 +25127,7 @@
         <v>1129</v>
       </c>
       <c r="F758" s="4" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="G758">
         <v>6</v>
@@ -25162,7 +25156,7 @@
         <v>1130</v>
       </c>
       <c r="F759" s="4" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="G759">
         <v>1.5</v>
@@ -25188,7 +25182,7 @@
         <v>1130</v>
       </c>
       <c r="F760" s="4" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="G760">
         <v>0.1</v>
@@ -25237,7 +25231,7 @@
         <v>1129</v>
       </c>
       <c r="F762" s="4" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="G762">
         <v>6</v>
@@ -25295,7 +25289,7 @@
         <v>1130</v>
       </c>
       <c r="F764" s="4" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="G764">
         <v>1.5</v>
@@ -25321,7 +25315,7 @@
         <v>1130</v>
       </c>
       <c r="F765" s="4" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="G765">
         <v>0.1</v>
@@ -25460,7 +25454,7 @@
         <v>1128</v>
       </c>
       <c r="F770" s="4" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="G770">
         <v>9</v>
@@ -25492,7 +25486,7 @@
         <v>1129</v>
       </c>
       <c r="F771" s="4" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="G771">
         <v>6</v>
@@ -25521,7 +25515,7 @@
         <v>1130</v>
       </c>
       <c r="F772" s="4" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="G772">
         <v>1.5</v>
@@ -25547,7 +25541,7 @@
         <v>1130</v>
       </c>
       <c r="F773" s="4" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="G773">
         <v>0.1</v>
@@ -25573,7 +25567,7 @@
         <v>1129</v>
       </c>
       <c r="F774" s="4" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="G774">
         <v>6</v>
@@ -25602,7 +25596,7 @@
         <v>1129</v>
       </c>
       <c r="F775" s="4" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="G775">
         <v>4</v>
@@ -25631,7 +25625,7 @@
         <v>1130</v>
       </c>
       <c r="F776" s="4" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="G776">
         <v>1.5</v>
@@ -25657,7 +25651,7 @@
         <v>1130</v>
       </c>
       <c r="F777" s="4" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="G777">
         <v>0.1</v>
@@ -26248,7 +26242,7 @@
         <v>1129</v>
       </c>
       <c r="F798" s="4" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="G798">
         <v>5</v>
@@ -26277,7 +26271,7 @@
         <v>1129</v>
       </c>
       <c r="F799" s="4" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G799">
         <v>4</v>
@@ -26306,7 +26300,7 @@
         <v>1130</v>
       </c>
       <c r="F800" s="4" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="G800">
         <v>1.5</v>
@@ -26332,7 +26326,7 @@
         <v>1130</v>
       </c>
       <c r="F801" s="4" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="G801">
         <v>0.1</v>
@@ -26937,7 +26931,7 @@
         <v>1129</v>
       </c>
       <c r="F823" s="4" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="G823">
         <v>8</v>
@@ -27079,7 +27073,7 @@
         <v>1128</v>
       </c>
       <c r="F828" s="4" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="G828">
         <v>8</v>
@@ -27111,7 +27105,7 @@
         <v>1129</v>
       </c>
       <c r="F829" s="4" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="G829">
         <v>4</v>
@@ -27140,7 +27134,7 @@
         <v>1130</v>
       </c>
       <c r="F830" s="4" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="G830">
         <v>1.5</v>
@@ -27166,7 +27160,7 @@
         <v>1130</v>
       </c>
       <c r="F831" s="4" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="G831">
         <v>0.1</v>
@@ -27177,7 +27171,7 @@
     </row>
     <row r="832" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A832" s="6" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="B832" s="5">
         <v>3500</v>
@@ -27192,7 +27186,7 @@
         <v>1129</v>
       </c>
       <c r="F832" s="4" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="G832">
         <v>8</v>
@@ -27441,7 +27435,7 @@
         <v>1129</v>
       </c>
       <c r="F841" s="4" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="G841">
         <v>7</v>
@@ -27913,7 +27907,7 @@
         <v>1129</v>
       </c>
       <c r="F858" s="4" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="G858">
         <v>8</v>
@@ -27942,7 +27936,7 @@
         <v>1129</v>
       </c>
       <c r="F859" s="4" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="G859">
         <v>6</v>
@@ -27971,7 +27965,7 @@
         <v>1130</v>
       </c>
       <c r="F860" s="4" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="G860">
         <v>1.5</v>
@@ -27997,7 +27991,7 @@
         <v>1130</v>
       </c>
       <c r="F861" s="4" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="G861">
         <v>0.1</v>
@@ -28046,7 +28040,7 @@
         <v>1128</v>
       </c>
       <c r="F863" s="4" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="G863">
         <v>7</v>
@@ -28078,7 +28072,7 @@
         <v>1129</v>
       </c>
       <c r="F864" s="4" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="G864">
         <v>5</v>
@@ -28107,7 +28101,7 @@
         <v>1130</v>
       </c>
       <c r="F865" s="4" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="G865">
         <v>1.5</v>
@@ -28133,7 +28127,7 @@
         <v>1130</v>
       </c>
       <c r="F866" s="4" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="G866">
         <v>0.1</v>
@@ -28269,7 +28263,7 @@
         <v>1129</v>
       </c>
       <c r="F871" s="4" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="G871">
         <v>7</v>
@@ -28298,7 +28292,7 @@
         <v>1129</v>
       </c>
       <c r="F872" s="4" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="G872">
         <v>7</v>
@@ -28312,7 +28306,7 @@
     </row>
     <row r="873" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A873" s="12" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="B873" s="7">
         <v>2500</v>
@@ -28328,7 +28322,7 @@
         <v>, , , Schmied, , , Kuriositätenhändler</v>
       </c>
       <c r="F873" s="9" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="G873">
         <v>1</v>
@@ -28342,7 +28336,7 @@
     </row>
     <row r="874" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A874" s="12" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="B874" s="7">
         <v>500</v>
@@ -28358,7 +28352,7 @@
         <v xml:space="preserve">, Allgemein, , , Wirt, , </v>
       </c>
       <c r="F874" s="9" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="G874">
         <v>2</v>
@@ -28372,7 +28366,7 @@
     </row>
     <row r="875" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A875" s="12" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="B875" s="7">
         <v>800</v>
@@ -28388,7 +28382,7 @@
         <v xml:space="preserve">, Allgemein, , , Wirt, , </v>
       </c>
       <c r="F875" s="9" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="G875">
         <v>2</v>
@@ -28401,10 +28395,10 @@
       </c>
     </row>
     <row r="876" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A876" s="17" t="s">
-        <v>1261</v>
-      </c>
-      <c r="B876" s="18">
+      <c r="A876" s="12" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B876" s="7">
         <v>2000</v>
       </c>
       <c r="C876" s="5">
@@ -28418,7 +28412,7 @@
         <v>Hehler, Allgemein, , , , , Kuriositätenhändler</v>
       </c>
       <c r="F876" s="9" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="G876">
         <v>0.4</v>
@@ -28434,10 +28428,10 @@
       </c>
     </row>
     <row r="877" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A877" s="17" t="s">
-        <v>1264</v>
-      </c>
-      <c r="B877" s="18">
+      <c r="A877" s="12" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B877" s="7">
         <v>500</v>
       </c>
       <c r="C877" s="5">
@@ -28451,7 +28445,7 @@
         <v>, Allgemein, Alchemist, , , , Kuriositätenhändler</v>
       </c>
       <c r="F877" s="9" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="G877">
         <v>1</v>
@@ -28467,10 +28461,10 @@
       </c>
     </row>
     <row r="878" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A878" s="17" t="s">
-        <v>1265</v>
-      </c>
-      <c r="B878" s="18">
+      <c r="A878" s="12" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B878" s="7">
         <v>1600</v>
       </c>
       <c r="C878" s="5">
@@ -28484,7 +28478,7 @@
         <v>Hehler, , , , , , Kuriositätenhändler</v>
       </c>
       <c r="F878" s="9" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="G878">
         <v>0.1</v>
@@ -28497,10 +28491,10 @@
       </c>
     </row>
     <row r="879" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A879" s="17" t="s">
-        <v>1267</v>
-      </c>
-      <c r="B879" s="18">
+      <c r="A879" s="12" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B879" s="7">
         <v>400</v>
       </c>
       <c r="C879" s="5">
@@ -28514,7 +28508,7 @@
         <v xml:space="preserve">, Allgemein, , Schmied, , , </v>
       </c>
       <c r="F879" s="9" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="G879">
         <v>1</v>
@@ -28528,12 +28522,12 @@
     </row>
     <row r="880" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A880" s="12" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="B880" s="7"/>
       <c r="C880" s="5"/>
       <c r="D880" s="5" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="E880" s="3" t="str">
         <f t="shared" si="20"/>
@@ -28549,7 +28543,7 @@
     </row>
     <row r="881" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A881" s="12" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="B881" s="7"/>
       <c r="C881" s="5"/>
@@ -28568,7 +28562,7 @@
     </row>
     <row r="882" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A882" s="12" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="B882" s="7"/>
       <c r="C882" s="5"/>
@@ -28587,7 +28581,7 @@
     </row>
     <row r="883" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A883" s="12" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="B883" s="7"/>
       <c r="C883" s="5"/>
@@ -28606,7 +28600,7 @@
     </row>
     <row r="884" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A884" s="12" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="B884" s="7"/>
       <c r="C884" s="5"/>
@@ -28625,7 +28619,7 @@
     </row>
     <row r="885" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A885" s="12" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="B885" s="7"/>
       <c r="C885" s="5"/>
@@ -28644,7 +28638,7 @@
     </row>
     <row r="886" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A886" s="12" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="B886" s="7"/>
       <c r="C886" s="5"/>
@@ -28663,7 +28657,7 @@
     </row>
     <row r="887" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A887" s="12" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="B887" s="7"/>
       <c r="C887" s="5"/>
@@ -28682,7 +28676,7 @@
     </row>
     <row r="888" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A888" s="12" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="B888" s="7"/>
       <c r="C888" s="5"/>
@@ -28701,7 +28695,7 @@
     </row>
     <row r="889" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A889" s="12" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="B889" s="7"/>
       <c r="C889" s="5"/>
@@ -28720,7 +28714,7 @@
     </row>
     <row r="890" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A890" s="12" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="B890" s="7"/>
       <c r="C890" s="5"/>
@@ -28739,7 +28733,7 @@
     </row>
     <row r="891" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A891" s="12" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="B891" s="7"/>
       <c r="C891" s="5"/>
@@ -28758,7 +28752,7 @@
     </row>
     <row r="892" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A892" s="12" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="B892" s="7"/>
       <c r="C892" s="5"/>
@@ -28774,7 +28768,7 @@
     </row>
     <row r="893" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A893" s="12" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="B893" s="7"/>
       <c r="C893" s="5"/>
@@ -28790,7 +28784,7 @@
     </row>
     <row r="894" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A894" s="12" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="B894" s="7"/>
       <c r="C894" s="5"/>
@@ -28809,7 +28803,7 @@
     </row>
     <row r="895" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A895" s="12" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="B895" s="7"/>
       <c r="C895" s="5"/>
@@ -28828,7 +28822,7 @@
     </row>
     <row r="896" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A896" s="12" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="B896" s="7"/>
       <c r="C896" s="5"/>
@@ -28847,7 +28841,7 @@
     </row>
     <row r="897" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A897" s="12" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="B897" s="7"/>
       <c r="C897" s="5"/>
@@ -28866,7 +28860,7 @@
     </row>
     <row r="898" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A898" s="12" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="B898" s="7"/>
       <c r="C898" s="5"/>
@@ -28879,7 +28873,7 @@
     </row>
     <row r="899" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A899" s="12" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="B899" s="7"/>
       <c r="C899" s="5"/>
@@ -28892,7 +28886,7 @@
     </row>
     <row r="900" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A900" s="12" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="B900" s="7"/>
       <c r="C900" s="5"/>
@@ -28905,7 +28899,7 @@
     </row>
     <row r="901" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A901" s="12" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="B901" s="7"/>
       <c r="C901" s="5"/>
@@ -28918,7 +28912,7 @@
     </row>
     <row r="902" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A902" s="12" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="B902" s="7"/>
       <c r="C902" s="5"/>
@@ -28931,7 +28925,7 @@
     </row>
     <row r="903" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A903" s="12" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="B903" s="7"/>
       <c r="C903" s="5"/>
@@ -28944,7 +28938,7 @@
     </row>
     <row r="904" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A904" s="12" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="B904" s="7"/>
       <c r="C904" s="5"/>
@@ -28957,7 +28951,7 @@
     </row>
     <row r="905" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A905" s="12" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="B905" s="7"/>
       <c r="C905" s="5"/>
